--- a/report.xlsx
+++ b/report.xlsx
@@ -5,29 +5,31 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\코딩\Report4CiscoL2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\DD_COT\04.파트별 공유\F.네트워크\신정훈\AutoCheck_Python-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="50" windowWidth="15960" windowHeight="12000"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="12000"/>
   </bookViews>
   <sheets>
     <sheet name="simple_report" sheetId="1" r:id="rId1"/>
+    <sheet name="interface" sheetId="2" r:id="rId2"/>
+    <sheet name="log" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
-    <t>Report Date: 2022-06-08 23:36:57.308596</t>
+    <t>SWITCH 점검 결과</t>
+  </si>
+  <si>
+    <t>Report Date: 2022-07-08 12:23:12.815926</t>
   </si>
   <si>
     <t>Section</t>
-  </si>
-  <si>
-    <t>unknown</t>
   </si>
   <si>
     <t>Model</t>
@@ -36,37 +38,25 @@
     <t>Hostname</t>
   </si>
   <si>
-    <t>192.168.190.152</t>
+    <t>IP address</t>
   </si>
   <si>
     <t>CPU(%used)</t>
   </si>
   <si>
-    <t>0%</t>
-  </si>
-  <si>
     <t>MEM(%used)</t>
   </si>
   <si>
-    <t>12%</t>
+    <t>온도</t>
   </si>
   <si>
-    <t>TEST1</t>
+    <t>파워</t>
   </si>
   <si>
-    <t>192.168.190.150</t>
+    <t>팬</t>
   </si>
   <si>
     <t>A1</t>
-  </si>
-  <si>
-    <t>TEST2</t>
-  </si>
-  <si>
-    <t>192.168.190.151</t>
-  </si>
-  <si>
-    <t>192.168.190.154</t>
   </si>
   <si>
     <t>B1</t>
@@ -77,10 +67,6 @@
   <si>
     <t>C1</t>
   </si>
-  <si>
-    <t>unknown</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
@@ -90,7 +76,7 @@
     <numFmt numFmtId="176" formatCode="yyyy&quot;년 &quot;m&quot;월 &quot;d&quot;일&quot;"/>
     <numFmt numFmtId="177" formatCode="yyyy&quot;-&quot;mm&quot;-&quot;dd&quot; &quot;h:mm:ss"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -163,8 +149,23 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -183,8 +184,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="33">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -524,11 +531,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color indexed="8"/>
+      </left>
+      <right style="hair">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -741,16 +763,59 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="2" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -758,6 +823,20 @@
     </xf>
     <xf numFmtId="177" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="31" fontId="2" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1884,24 +1963,21 @@
   <dimension ref="A1:IV108"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="AD10" sqref="AD10"/>
+      <selection activeCell="D4" sqref="D4:AD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="3" width="2.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="3.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="3.83203125" style="1" customWidth="1"/>
-    <col min="7" max="11" width="3.5" style="1" customWidth="1"/>
-    <col min="12" max="15" width="3" style="1" customWidth="1"/>
-    <col min="16" max="30" width="2.83203125" style="1" customWidth="1"/>
+    <col min="4" max="24" width="5.5" style="1" customWidth="1"/>
+    <col min="25" max="27" width="5.5" style="87" customWidth="1"/>
+    <col min="28" max="30" width="10.125" style="87" customWidth="1"/>
     <col min="31" max="47" width="3.25" style="1" customWidth="1"/>
     <col min="48" max="81" width="9" style="1" customWidth="1"/>
-    <col min="82" max="256" width="8.83203125" style="1" customWidth="1"/>
+    <col min="82" max="256" width="8.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:81" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -1913,7 +1989,9 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
+      <c r="L1" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
@@ -1926,12 +2004,12 @@
       <c r="V1" s="3"/>
       <c r="W1" s="3"/>
       <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="3"/>
+      <c r="Y1" s="73"/>
+      <c r="Z1" s="73"/>
+      <c r="AA1" s="73"/>
+      <c r="AB1" s="73"/>
+      <c r="AC1" s="73"/>
+      <c r="AD1" s="73"/>
       <c r="AE1" s="5"/>
       <c r="AF1" s="5"/>
       <c r="AG1" s="5"/>
@@ -1984,9 +2062,9 @@
       <c r="CB1" s="5"/>
       <c r="CC1" s="6"/>
     </row>
-    <row r="2" spans="1:81" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:81" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -2011,12 +2089,12 @@
       <c r="V2" s="8"/>
       <c r="W2" s="8"/>
       <c r="X2" s="8"/>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="8"/>
-      <c r="AA2" s="8"/>
-      <c r="AB2" s="8"/>
-      <c r="AC2" s="8"/>
-      <c r="AD2" s="8"/>
+      <c r="Y2" s="74"/>
+      <c r="Z2" s="74"/>
+      <c r="AA2" s="74"/>
+      <c r="AB2" s="74"/>
+      <c r="AC2" s="74"/>
+      <c r="AD2" s="74"/>
       <c r="AE2" s="9"/>
       <c r="AF2" s="9"/>
       <c r="AG2" s="9"/>
@@ -2069,63 +2147,55 @@
       <c r="CB2" s="9"/>
       <c r="CC2" s="10"/>
     </row>
-    <row r="3" spans="1:81" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:81" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="67" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="68"/>
       <c r="C3" s="69"/>
-      <c r="D3" s="70" t="s">
-        <v>2</v>
-      </c>
+      <c r="D3" s="70"/>
       <c r="E3" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="69"/>
-      <c r="G3" s="72" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="71" t="s">
+      <c r="F3" s="72"/>
+      <c r="G3" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="75" t="s">
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="74"/>
-      <c r="P3" s="75" t="s">
+      <c r="M3" s="94"/>
+      <c r="N3" s="94"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="73" t="s">
+      <c r="Q3" s="94"/>
+      <c r="R3" s="96"/>
+      <c r="S3" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="74"/>
-      <c r="S3" s="75" t="s">
+      <c r="T3" s="94"/>
+      <c r="U3" s="96"/>
+      <c r="V3" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="T3" s="73" t="s">
+      <c r="W3" s="94"/>
+      <c r="X3" s="96"/>
+      <c r="Y3" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="74"/>
-      <c r="V3" s="75" t="s">
-        <v>2</v>
+      <c r="Z3" s="94"/>
+      <c r="AA3" s="96"/>
+      <c r="AB3" s="93" t="s">
+        <v>10</v>
       </c>
-      <c r="W3" s="73"/>
-      <c r="X3" s="74"/>
-      <c r="Y3" s="75" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z3" s="73"/>
-      <c r="AA3" s="74"/>
-      <c r="AB3" s="72"/>
-      <c r="AC3" s="71" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD3" s="73"/>
+      <c r="AC3" s="94"/>
+      <c r="AD3" s="94"/>
       <c r="AE3" s="11"/>
       <c r="AF3" s="9"/>
       <c r="AG3" s="9"/>
@@ -2178,53 +2248,37 @@
       <c r="CB3" s="9"/>
       <c r="CC3" s="10"/>
     </row>
-    <row r="4" spans="1:81" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:81" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12"/>
       <c r="B4" s="13"/>
       <c r="C4" s="14"/>
-      <c r="D4" s="15" t="s">
-        <v>2</v>
-      </c>
+      <c r="D4" s="15"/>
       <c r="E4" s="16"/>
       <c r="F4" s="17"/>
-      <c r="G4" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="76"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="91"/>
       <c r="I4" s="16"/>
       <c r="J4" s="16"/>
       <c r="K4" s="18"/>
-      <c r="L4" s="15" t="s">
-        <v>11</v>
-      </c>
+      <c r="L4" s="15"/>
       <c r="M4" s="16"/>
       <c r="N4" s="16"/>
       <c r="O4" s="17"/>
       <c r="P4" s="19"/>
-      <c r="Q4" s="20" t="s">
-        <v>7</v>
-      </c>
+      <c r="Q4" s="20"/>
       <c r="R4" s="21"/>
       <c r="S4" s="19"/>
-      <c r="T4" s="20" t="s">
-        <v>9</v>
-      </c>
+      <c r="T4" s="20"/>
       <c r="U4" s="21"/>
-      <c r="V4" s="19" t="s">
-        <v>2</v>
-      </c>
+      <c r="V4" s="19"/>
       <c r="W4" s="20"/>
       <c r="X4" s="21"/>
-      <c r="Y4" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z4" s="16"/>
-      <c r="AA4" s="17"/>
-      <c r="AB4" s="15"/>
-      <c r="AC4" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD4" s="17"/>
+      <c r="Y4" s="75"/>
+      <c r="Z4" s="76"/>
+      <c r="AA4" s="77"/>
+      <c r="AB4" s="75"/>
+      <c r="AC4" s="76"/>
+      <c r="AD4" s="77"/>
       <c r="AE4" s="22"/>
       <c r="AF4" s="9"/>
       <c r="AG4" s="9"/>
@@ -2277,55 +2331,39 @@
       <c r="CB4" s="9"/>
       <c r="CC4" s="10"/>
     </row>
-    <row r="5" spans="1:81" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:81" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="23"/>
       <c r="B5" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="25"/>
-      <c r="D5" s="26" t="s">
-        <v>2</v>
-      </c>
+      <c r="D5" s="26"/>
       <c r="E5" s="27"/>
       <c r="F5" s="28"/>
-      <c r="G5" s="26" t="s">
-        <v>13</v>
-      </c>
+      <c r="G5" s="26"/>
       <c r="H5" s="27"/>
       <c r="I5" s="27"/>
       <c r="J5" s="27"/>
       <c r="K5" s="28"/>
-      <c r="L5" s="26" t="s">
-        <v>14</v>
-      </c>
+      <c r="L5" s="26"/>
       <c r="M5" s="27"/>
       <c r="N5" s="27"/>
       <c r="O5" s="28"/>
       <c r="P5" s="29"/>
-      <c r="Q5" s="30" t="s">
-        <v>7</v>
-      </c>
+      <c r="Q5" s="30"/>
       <c r="R5" s="31"/>
       <c r="S5" s="29"/>
-      <c r="T5" s="30" t="s">
-        <v>9</v>
-      </c>
+      <c r="T5" s="30"/>
       <c r="U5" s="31"/>
-      <c r="V5" s="29" t="s">
-        <v>2</v>
-      </c>
+      <c r="V5" s="29"/>
       <c r="W5" s="30"/>
       <c r="X5" s="31"/>
-      <c r="Y5" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z5" s="27"/>
-      <c r="AA5" s="28"/>
-      <c r="AB5" s="26"/>
-      <c r="AC5" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD5" s="28"/>
+      <c r="Y5" s="78"/>
+      <c r="Z5" s="79"/>
+      <c r="AA5" s="80"/>
+      <c r="AB5" s="78"/>
+      <c r="AC5" s="79"/>
+      <c r="AD5" s="80"/>
       <c r="AE5" s="22"/>
       <c r="AF5" s="9"/>
       <c r="AG5" s="9"/>
@@ -2378,53 +2416,37 @@
       <c r="CB5" s="9"/>
       <c r="CC5" s="10"/>
     </row>
-    <row r="6" spans="1:81" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:81" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="23"/>
       <c r="B6" s="32"/>
       <c r="C6" s="25"/>
-      <c r="D6" s="26" t="s">
-        <v>2</v>
-      </c>
+      <c r="D6" s="26"/>
       <c r="E6" s="27"/>
       <c r="F6" s="28"/>
-      <c r="G6" s="26" t="s">
-        <v>2</v>
-      </c>
+      <c r="G6" s="26"/>
       <c r="H6" s="27"/>
       <c r="I6" s="27"/>
       <c r="J6" s="27"/>
       <c r="K6" s="28"/>
-      <c r="L6" s="26" t="s">
-        <v>5</v>
-      </c>
+      <c r="L6" s="26"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="28"/>
       <c r="P6" s="29"/>
-      <c r="Q6" s="30" t="s">
-        <v>7</v>
-      </c>
+      <c r="Q6" s="30"/>
       <c r="R6" s="31"/>
       <c r="S6" s="29"/>
-      <c r="T6" s="30" t="s">
-        <v>9</v>
-      </c>
+      <c r="T6" s="30"/>
       <c r="U6" s="31"/>
-      <c r="V6" s="29" t="s">
-        <v>2</v>
-      </c>
+      <c r="V6" s="29"/>
       <c r="W6" s="30"/>
       <c r="X6" s="31"/>
-      <c r="Y6" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z6" s="27"/>
-      <c r="AA6" s="28"/>
-      <c r="AB6" s="26"/>
-      <c r="AC6" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD6" s="28"/>
+      <c r="Y6" s="78"/>
+      <c r="Z6" s="79"/>
+      <c r="AA6" s="80"/>
+      <c r="AB6" s="78"/>
+      <c r="AC6" s="79"/>
+      <c r="AD6" s="80"/>
       <c r="AE6" s="22"/>
       <c r="AF6" s="33"/>
       <c r="AG6" s="9"/>
@@ -2477,53 +2499,37 @@
       <c r="CB6" s="9"/>
       <c r="CC6" s="10"/>
     </row>
-    <row r="7" spans="1:81" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:81" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="23"/>
       <c r="B7" s="32"/>
       <c r="C7" s="25"/>
-      <c r="D7" s="26" t="s">
-        <v>2</v>
-      </c>
+      <c r="D7" s="26"/>
       <c r="E7" s="27"/>
       <c r="F7" s="28"/>
-      <c r="G7" s="26" t="s">
-        <v>2</v>
-      </c>
+      <c r="G7" s="26"/>
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
       <c r="J7" s="27"/>
       <c r="K7" s="28"/>
-      <c r="L7" s="26" t="s">
-        <v>11</v>
-      </c>
+      <c r="L7" s="26"/>
       <c r="M7" s="27"/>
       <c r="N7" s="27"/>
       <c r="O7" s="28"/>
       <c r="P7" s="29"/>
-      <c r="Q7" s="30" t="s">
-        <v>2</v>
-      </c>
+      <c r="Q7" s="30"/>
       <c r="R7" s="31"/>
       <c r="S7" s="29"/>
-      <c r="T7" s="30" t="s">
-        <v>2</v>
-      </c>
+      <c r="T7" s="30"/>
       <c r="U7" s="31"/>
-      <c r="V7" s="29" t="s">
-        <v>2</v>
-      </c>
+      <c r="V7" s="29"/>
       <c r="W7" s="30"/>
       <c r="X7" s="31"/>
-      <c r="Y7" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z7" s="27"/>
-      <c r="AA7" s="28"/>
-      <c r="AB7" s="26"/>
-      <c r="AC7" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD7" s="28"/>
+      <c r="Y7" s="78"/>
+      <c r="Z7" s="79"/>
+      <c r="AA7" s="80"/>
+      <c r="AB7" s="78"/>
+      <c r="AC7" s="79"/>
+      <c r="AD7" s="80"/>
       <c r="AE7" s="22"/>
       <c r="AF7" s="9"/>
       <c r="AG7" s="9"/>
@@ -2576,53 +2582,37 @@
       <c r="CB7" s="9"/>
       <c r="CC7" s="10"/>
     </row>
-    <row r="8" spans="1:81" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:81" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="23"/>
       <c r="B8" s="32"/>
       <c r="C8" s="25"/>
-      <c r="D8" s="26" t="s">
-        <v>2</v>
-      </c>
+      <c r="D8" s="26"/>
       <c r="E8" s="27"/>
       <c r="F8" s="28"/>
-      <c r="G8" s="26" t="s">
-        <v>2</v>
-      </c>
+      <c r="G8" s="26"/>
       <c r="H8" s="27"/>
       <c r="I8" s="27"/>
       <c r="J8" s="27"/>
       <c r="K8" s="28"/>
-      <c r="L8" s="26" t="s">
-        <v>15</v>
-      </c>
+      <c r="L8" s="26"/>
       <c r="M8" s="27"/>
       <c r="N8" s="27"/>
       <c r="O8" s="28"/>
       <c r="P8" s="29"/>
-      <c r="Q8" s="30" t="s">
-        <v>2</v>
-      </c>
+      <c r="Q8" s="30"/>
       <c r="R8" s="31"/>
-      <c r="S8" s="29"/>
-      <c r="T8" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="U8" s="31"/>
-      <c r="V8" s="29" t="s">
-        <v>2</v>
-      </c>
+      <c r="S8" s="88"/>
+      <c r="T8" s="89"/>
+      <c r="U8" s="90"/>
+      <c r="V8" s="29"/>
       <c r="W8" s="30"/>
       <c r="X8" s="31"/>
-      <c r="Y8" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z8" s="27"/>
-      <c r="AA8" s="28"/>
-      <c r="AB8" s="26"/>
-      <c r="AC8" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD8" s="28"/>
+      <c r="Y8" s="78"/>
+      <c r="Z8" s="79"/>
+      <c r="AA8" s="80"/>
+      <c r="AB8" s="78"/>
+      <c r="AC8" s="79"/>
+      <c r="AD8" s="80"/>
       <c r="AE8" s="34"/>
       <c r="AF8" s="35"/>
       <c r="AG8" s="35"/>
@@ -2675,7 +2665,7 @@
       <c r="CB8" s="35"/>
       <c r="CC8" s="38"/>
     </row>
-    <row r="9" spans="1:81" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:81" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="39"/>
       <c r="B9" s="40"/>
       <c r="C9" s="41"/>
@@ -2700,12 +2690,12 @@
       <c r="V9" s="45"/>
       <c r="W9" s="46"/>
       <c r="X9" s="47"/>
-      <c r="Y9" s="42"/>
-      <c r="Z9" s="43"/>
-      <c r="AA9" s="44"/>
-      <c r="AB9" s="42"/>
-      <c r="AC9" s="43"/>
-      <c r="AD9" s="44"/>
+      <c r="Y9" s="81"/>
+      <c r="Z9" s="82"/>
+      <c r="AA9" s="83"/>
+      <c r="AB9" s="81"/>
+      <c r="AC9" s="82"/>
+      <c r="AD9" s="83"/>
       <c r="AE9" s="22"/>
       <c r="AF9" s="9"/>
       <c r="AG9" s="9"/>
@@ -2758,7 +2748,7 @@
       <c r="CB9" s="9"/>
       <c r="CC9" s="10"/>
     </row>
-    <row r="10" spans="1:81" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:81" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="48"/>
       <c r="B10" s="49"/>
       <c r="C10" s="50"/>
@@ -2783,14 +2773,14 @@
       <c r="V10" s="54"/>
       <c r="W10" s="55"/>
       <c r="X10" s="56"/>
-      <c r="Y10" s="51"/>
-      <c r="Z10" s="52"/>
-      <c r="AA10" s="53"/>
-      <c r="AB10" s="51"/>
-      <c r="AC10" s="52"/>
-      <c r="AD10" s="53"/>
+      <c r="Y10" s="84"/>
+      <c r="Z10" s="85"/>
+      <c r="AA10" s="86"/>
+      <c r="AB10" s="84"/>
+      <c r="AC10" s="85"/>
+      <c r="AD10" s="86"/>
       <c r="AE10" s="22"/>
-      <c r="AF10" s="77"/>
+      <c r="AF10" s="92"/>
       <c r="AG10" s="9"/>
       <c r="AH10" s="9"/>
       <c r="AI10" s="9"/>
@@ -2841,10 +2831,10 @@
       <c r="CB10" s="9"/>
       <c r="CC10" s="10"/>
     </row>
-    <row r="11" spans="1:81" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:81" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="23"/>
       <c r="B11" s="24" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C11" s="25"/>
       <c r="D11" s="26"/>
@@ -2868,12 +2858,12 @@
       <c r="V11" s="29"/>
       <c r="W11" s="30"/>
       <c r="X11" s="31"/>
-      <c r="Y11" s="26"/>
-      <c r="Z11" s="27"/>
-      <c r="AA11" s="28"/>
-      <c r="AB11" s="26"/>
-      <c r="AC11" s="27"/>
-      <c r="AD11" s="28"/>
+      <c r="Y11" s="78"/>
+      <c r="Z11" s="79"/>
+      <c r="AA11" s="80"/>
+      <c r="AB11" s="78"/>
+      <c r="AC11" s="79"/>
+      <c r="AD11" s="80"/>
       <c r="AE11" s="22"/>
       <c r="AF11" s="9"/>
       <c r="AG11" s="9"/>
@@ -2926,7 +2916,7 @@
       <c r="CB11" s="9"/>
       <c r="CC11" s="10"/>
     </row>
-    <row r="12" spans="1:81" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:81" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="23"/>
       <c r="B12" s="32"/>
       <c r="C12" s="25"/>
@@ -2951,12 +2941,12 @@
       <c r="V12" s="29"/>
       <c r="W12" s="30"/>
       <c r="X12" s="31"/>
-      <c r="Y12" s="26"/>
-      <c r="Z12" s="27"/>
-      <c r="AA12" s="28"/>
-      <c r="AB12" s="26"/>
-      <c r="AC12" s="27"/>
-      <c r="AD12" s="28"/>
+      <c r="Y12" s="78"/>
+      <c r="Z12" s="79"/>
+      <c r="AA12" s="80"/>
+      <c r="AB12" s="78"/>
+      <c r="AC12" s="79"/>
+      <c r="AD12" s="80"/>
       <c r="AE12" s="22"/>
       <c r="AF12" s="9"/>
       <c r="AG12" s="9"/>
@@ -3009,7 +2999,7 @@
       <c r="CB12" s="9"/>
       <c r="CC12" s="10"/>
     </row>
-    <row r="13" spans="1:81" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:81" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="23"/>
       <c r="B13" s="32"/>
       <c r="C13" s="25"/>
@@ -3034,12 +3024,12 @@
       <c r="V13" s="29"/>
       <c r="W13" s="30"/>
       <c r="X13" s="31"/>
-      <c r="Y13" s="26"/>
-      <c r="Z13" s="27"/>
-      <c r="AA13" s="28"/>
-      <c r="AB13" s="26"/>
-      <c r="AC13" s="27"/>
-      <c r="AD13" s="28"/>
+      <c r="Y13" s="78"/>
+      <c r="Z13" s="79"/>
+      <c r="AA13" s="80"/>
+      <c r="AB13" s="78"/>
+      <c r="AC13" s="79"/>
+      <c r="AD13" s="80"/>
       <c r="AE13" s="22"/>
       <c r="AF13" s="9"/>
       <c r="AG13" s="9"/>
@@ -3092,7 +3082,7 @@
       <c r="CB13" s="9"/>
       <c r="CC13" s="10"/>
     </row>
-    <row r="14" spans="1:81" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:81" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="23"/>
       <c r="B14" s="32"/>
       <c r="C14" s="25"/>
@@ -3117,12 +3107,12 @@
       <c r="V14" s="29"/>
       <c r="W14" s="30"/>
       <c r="X14" s="31"/>
-      <c r="Y14" s="26"/>
-      <c r="Z14" s="27"/>
-      <c r="AA14" s="28"/>
-      <c r="AB14" s="26"/>
-      <c r="AC14" s="27"/>
-      <c r="AD14" s="28"/>
+      <c r="Y14" s="78"/>
+      <c r="Z14" s="79"/>
+      <c r="AA14" s="80"/>
+      <c r="AB14" s="78"/>
+      <c r="AC14" s="79"/>
+      <c r="AD14" s="80"/>
       <c r="AE14" s="22"/>
       <c r="AF14" s="9"/>
       <c r="AG14" s="9"/>
@@ -3175,7 +3165,7 @@
       <c r="CB14" s="9"/>
       <c r="CC14" s="10"/>
     </row>
-    <row r="15" spans="1:81" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:81" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="23"/>
       <c r="B15" s="32"/>
       <c r="C15" s="25"/>
@@ -3200,12 +3190,12 @@
       <c r="V15" s="29"/>
       <c r="W15" s="30"/>
       <c r="X15" s="31"/>
-      <c r="Y15" s="26"/>
-      <c r="Z15" s="27"/>
-      <c r="AA15" s="28"/>
-      <c r="AB15" s="26"/>
-      <c r="AC15" s="27"/>
-      <c r="AD15" s="28"/>
+      <c r="Y15" s="78"/>
+      <c r="Z15" s="79"/>
+      <c r="AA15" s="80"/>
+      <c r="AB15" s="78"/>
+      <c r="AC15" s="79"/>
+      <c r="AD15" s="80"/>
       <c r="AE15" s="22"/>
       <c r="AF15" s="9"/>
       <c r="AG15" s="9"/>
@@ -3258,7 +3248,7 @@
       <c r="CB15" s="9"/>
       <c r="CC15" s="10"/>
     </row>
-    <row r="16" spans="1:81" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:81" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="23"/>
       <c r="B16" s="32"/>
       <c r="C16" s="25"/>
@@ -3283,12 +3273,12 @@
       <c r="V16" s="29"/>
       <c r="W16" s="30"/>
       <c r="X16" s="31"/>
-      <c r="Y16" s="26"/>
-      <c r="Z16" s="27"/>
-      <c r="AA16" s="28"/>
-      <c r="AB16" s="26"/>
-      <c r="AC16" s="27"/>
-      <c r="AD16" s="28"/>
+      <c r="Y16" s="78"/>
+      <c r="Z16" s="79"/>
+      <c r="AA16" s="80"/>
+      <c r="AB16" s="78"/>
+      <c r="AC16" s="79"/>
+      <c r="AD16" s="80"/>
       <c r="AE16" s="22"/>
       <c r="AF16" s="9"/>
       <c r="AG16" s="9"/>
@@ -3341,7 +3331,7 @@
       <c r="CB16" s="9"/>
       <c r="CC16" s="10"/>
     </row>
-    <row r="17" spans="1:81" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:81" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="23"/>
       <c r="B17" s="32"/>
       <c r="C17" s="25"/>
@@ -3366,12 +3356,12 @@
       <c r="V17" s="29"/>
       <c r="W17" s="30"/>
       <c r="X17" s="31"/>
-      <c r="Y17" s="26"/>
-      <c r="Z17" s="27"/>
-      <c r="AA17" s="28"/>
-      <c r="AB17" s="26"/>
-      <c r="AC17" s="27"/>
-      <c r="AD17" s="28"/>
+      <c r="Y17" s="78"/>
+      <c r="Z17" s="79"/>
+      <c r="AA17" s="80"/>
+      <c r="AB17" s="78"/>
+      <c r="AC17" s="79"/>
+      <c r="AD17" s="80"/>
       <c r="AE17" s="22"/>
       <c r="AF17" s="9"/>
       <c r="AG17" s="9"/>
@@ -3424,7 +3414,7 @@
       <c r="CB17" s="9"/>
       <c r="CC17" s="10"/>
     </row>
-    <row r="18" spans="1:81" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:81" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="23"/>
       <c r="B18" s="32"/>
       <c r="C18" s="25"/>
@@ -3449,12 +3439,12 @@
       <c r="V18" s="29"/>
       <c r="W18" s="30"/>
       <c r="X18" s="31"/>
-      <c r="Y18" s="26"/>
-      <c r="Z18" s="27"/>
-      <c r="AA18" s="28"/>
-      <c r="AB18" s="26"/>
-      <c r="AC18" s="27"/>
-      <c r="AD18" s="28"/>
+      <c r="Y18" s="78"/>
+      <c r="Z18" s="79"/>
+      <c r="AA18" s="80"/>
+      <c r="AB18" s="78"/>
+      <c r="AC18" s="79"/>
+      <c r="AD18" s="80"/>
       <c r="AE18" s="22"/>
       <c r="AF18" s="9"/>
       <c r="AG18" s="9"/>
@@ -3507,7 +3497,7 @@
       <c r="CB18" s="9"/>
       <c r="CC18" s="10"/>
     </row>
-    <row r="19" spans="1:81" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:81" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="23"/>
       <c r="B19" s="32"/>
       <c r="C19" s="25"/>
@@ -3532,12 +3522,12 @@
       <c r="V19" s="29"/>
       <c r="W19" s="30"/>
       <c r="X19" s="31"/>
-      <c r="Y19" s="26"/>
-      <c r="Z19" s="27"/>
-      <c r="AA19" s="28"/>
-      <c r="AB19" s="26"/>
-      <c r="AC19" s="27"/>
-      <c r="AD19" s="28"/>
+      <c r="Y19" s="78"/>
+      <c r="Z19" s="79"/>
+      <c r="AA19" s="80"/>
+      <c r="AB19" s="78"/>
+      <c r="AC19" s="79"/>
+      <c r="AD19" s="80"/>
       <c r="AE19" s="22"/>
       <c r="AF19" s="9"/>
       <c r="AG19" s="9"/>
@@ -3590,7 +3580,7 @@
       <c r="CB19" s="9"/>
       <c r="CC19" s="10"/>
     </row>
-    <row r="20" spans="1:81" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:81" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="23"/>
       <c r="B20" s="32"/>
       <c r="C20" s="25"/>
@@ -3615,12 +3605,12 @@
       <c r="V20" s="29"/>
       <c r="W20" s="30"/>
       <c r="X20" s="31"/>
-      <c r="Y20" s="26"/>
-      <c r="Z20" s="27"/>
-      <c r="AA20" s="28"/>
-      <c r="AB20" s="26"/>
-      <c r="AC20" s="27"/>
-      <c r="AD20" s="28"/>
+      <c r="Y20" s="78"/>
+      <c r="Z20" s="79"/>
+      <c r="AA20" s="80"/>
+      <c r="AB20" s="78"/>
+      <c r="AC20" s="79"/>
+      <c r="AD20" s="80"/>
       <c r="AE20" s="22"/>
       <c r="AF20" s="9"/>
       <c r="AG20" s="9"/>
@@ -3673,7 +3663,7 @@
       <c r="CB20" s="9"/>
       <c r="CC20" s="10"/>
     </row>
-    <row r="21" spans="1:81" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:81" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="23"/>
       <c r="B21" s="32"/>
       <c r="C21" s="58"/>
@@ -3698,12 +3688,12 @@
       <c r="V21" s="29"/>
       <c r="W21" s="30"/>
       <c r="X21" s="31"/>
-      <c r="Y21" s="26"/>
-      <c r="Z21" s="27"/>
-      <c r="AA21" s="28"/>
-      <c r="AB21" s="26"/>
-      <c r="AC21" s="27"/>
-      <c r="AD21" s="28"/>
+      <c r="Y21" s="78"/>
+      <c r="Z21" s="79"/>
+      <c r="AA21" s="80"/>
+      <c r="AB21" s="78"/>
+      <c r="AC21" s="79"/>
+      <c r="AD21" s="80"/>
       <c r="AE21" s="22"/>
       <c r="AF21" s="9"/>
       <c r="AG21" s="9"/>
@@ -3756,7 +3746,7 @@
       <c r="CB21" s="9"/>
       <c r="CC21" s="10"/>
     </row>
-    <row r="22" spans="1:81" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:81" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="23"/>
       <c r="B22" s="32"/>
       <c r="C22" s="25"/>
@@ -3781,12 +3771,12 @@
       <c r="V22" s="29"/>
       <c r="W22" s="30"/>
       <c r="X22" s="31"/>
-      <c r="Y22" s="26"/>
-      <c r="Z22" s="27"/>
-      <c r="AA22" s="28"/>
-      <c r="AB22" s="26"/>
-      <c r="AC22" s="27"/>
-      <c r="AD22" s="28"/>
+      <c r="Y22" s="78"/>
+      <c r="Z22" s="79"/>
+      <c r="AA22" s="80"/>
+      <c r="AB22" s="78"/>
+      <c r="AC22" s="79"/>
+      <c r="AD22" s="80"/>
       <c r="AE22" s="22"/>
       <c r="AF22" s="9"/>
       <c r="AG22" s="9"/>
@@ -3839,7 +3829,7 @@
       <c r="CB22" s="9"/>
       <c r="CC22" s="10"/>
     </row>
-    <row r="23" spans="1:81" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:81" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="23"/>
       <c r="B23" s="32"/>
       <c r="C23" s="25"/>
@@ -3864,12 +3854,12 @@
       <c r="V23" s="29"/>
       <c r="W23" s="30"/>
       <c r="X23" s="31"/>
-      <c r="Y23" s="26"/>
-      <c r="Z23" s="27"/>
-      <c r="AA23" s="28"/>
-      <c r="AB23" s="26"/>
-      <c r="AC23" s="27"/>
-      <c r="AD23" s="28"/>
+      <c r="Y23" s="78"/>
+      <c r="Z23" s="79"/>
+      <c r="AA23" s="80"/>
+      <c r="AB23" s="78"/>
+      <c r="AC23" s="79"/>
+      <c r="AD23" s="80"/>
       <c r="AE23" s="22"/>
       <c r="AF23" s="9"/>
       <c r="AG23" s="9"/>
@@ -3922,7 +3912,7 @@
       <c r="CB23" s="9"/>
       <c r="CC23" s="10"/>
     </row>
-    <row r="24" spans="1:81" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:81" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="23"/>
       <c r="B24" s="32"/>
       <c r="C24" s="25"/>
@@ -3947,12 +3937,12 @@
       <c r="V24" s="29"/>
       <c r="W24" s="30"/>
       <c r="X24" s="31"/>
-      <c r="Y24" s="26"/>
-      <c r="Z24" s="27"/>
-      <c r="AA24" s="28"/>
-      <c r="AB24" s="26"/>
-      <c r="AC24" s="27"/>
-      <c r="AD24" s="28"/>
+      <c r="Y24" s="78"/>
+      <c r="Z24" s="79"/>
+      <c r="AA24" s="80"/>
+      <c r="AB24" s="78"/>
+      <c r="AC24" s="79"/>
+      <c r="AD24" s="80"/>
       <c r="AE24" s="22"/>
       <c r="AF24" s="9"/>
       <c r="AG24" s="9"/>
@@ -4005,7 +3995,7 @@
       <c r="CB24" s="9"/>
       <c r="CC24" s="10"/>
     </row>
-    <row r="25" spans="1:81" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:81" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="23"/>
       <c r="B25" s="32"/>
       <c r="C25" s="25"/>
@@ -4030,12 +4020,12 @@
       <c r="V25" s="29"/>
       <c r="W25" s="30"/>
       <c r="X25" s="31"/>
-      <c r="Y25" s="26"/>
-      <c r="Z25" s="27"/>
-      <c r="AA25" s="28"/>
-      <c r="AB25" s="26"/>
-      <c r="AC25" s="27"/>
-      <c r="AD25" s="28"/>
+      <c r="Y25" s="78"/>
+      <c r="Z25" s="79"/>
+      <c r="AA25" s="80"/>
+      <c r="AB25" s="78"/>
+      <c r="AC25" s="79"/>
+      <c r="AD25" s="80"/>
       <c r="AE25" s="22"/>
       <c r="AF25" s="9"/>
       <c r="AG25" s="9"/>
@@ -4088,7 +4078,7 @@
       <c r="CB25" s="9"/>
       <c r="CC25" s="10"/>
     </row>
-    <row r="26" spans="1:81" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:81" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="23"/>
       <c r="B26" s="32"/>
       <c r="C26" s="25"/>
@@ -4113,12 +4103,12 @@
       <c r="V26" s="29"/>
       <c r="W26" s="30"/>
       <c r="X26" s="31"/>
-      <c r="Y26" s="26"/>
-      <c r="Z26" s="27"/>
-      <c r="AA26" s="28"/>
-      <c r="AB26" s="26"/>
-      <c r="AC26" s="27"/>
-      <c r="AD26" s="28"/>
+      <c r="Y26" s="78"/>
+      <c r="Z26" s="79"/>
+      <c r="AA26" s="80"/>
+      <c r="AB26" s="78"/>
+      <c r="AC26" s="79"/>
+      <c r="AD26" s="80"/>
       <c r="AE26" s="22"/>
       <c r="AF26" s="9"/>
       <c r="AG26" s="9"/>
@@ -4171,7 +4161,7 @@
       <c r="CB26" s="9"/>
       <c r="CC26" s="10"/>
     </row>
-    <row r="27" spans="1:81" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:81" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="23"/>
       <c r="B27" s="32"/>
       <c r="C27" s="25"/>
@@ -4196,12 +4186,12 @@
       <c r="V27" s="29"/>
       <c r="W27" s="30"/>
       <c r="X27" s="31"/>
-      <c r="Y27" s="26"/>
-      <c r="Z27" s="27"/>
-      <c r="AA27" s="28"/>
-      <c r="AB27" s="26"/>
-      <c r="AC27" s="27"/>
-      <c r="AD27" s="28"/>
+      <c r="Y27" s="78"/>
+      <c r="Z27" s="79"/>
+      <c r="AA27" s="80"/>
+      <c r="AB27" s="78"/>
+      <c r="AC27" s="79"/>
+      <c r="AD27" s="80"/>
       <c r="AE27" s="22"/>
       <c r="AF27" s="9"/>
       <c r="AG27" s="9"/>
@@ -4254,7 +4244,7 @@
       <c r="CB27" s="9"/>
       <c r="CC27" s="10"/>
     </row>
-    <row r="28" spans="1:81" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:81" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="39"/>
       <c r="B28" s="40"/>
       <c r="C28" s="41"/>
@@ -4279,12 +4269,12 @@
       <c r="V28" s="45"/>
       <c r="W28" s="46"/>
       <c r="X28" s="47"/>
-      <c r="Y28" s="42"/>
-      <c r="Z28" s="43"/>
-      <c r="AA28" s="44"/>
-      <c r="AB28" s="42"/>
-      <c r="AC28" s="43"/>
-      <c r="AD28" s="44"/>
+      <c r="Y28" s="81"/>
+      <c r="Z28" s="82"/>
+      <c r="AA28" s="83"/>
+      <c r="AB28" s="81"/>
+      <c r="AC28" s="82"/>
+      <c r="AD28" s="83"/>
       <c r="AE28" s="59"/>
       <c r="AF28" s="33"/>
       <c r="AG28" s="33"/>
@@ -4337,7 +4327,7 @@
       <c r="CB28" s="9"/>
       <c r="CC28" s="10"/>
     </row>
-    <row r="29" spans="1:81" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:81" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="48"/>
       <c r="B29" s="49"/>
       <c r="C29" s="50"/>
@@ -4362,12 +4352,12 @@
       <c r="V29" s="54"/>
       <c r="W29" s="55"/>
       <c r="X29" s="56"/>
-      <c r="Y29" s="51"/>
-      <c r="Z29" s="52"/>
-      <c r="AA29" s="53"/>
-      <c r="AB29" s="51"/>
-      <c r="AC29" s="52"/>
-      <c r="AD29" s="53"/>
+      <c r="Y29" s="84"/>
+      <c r="Z29" s="85"/>
+      <c r="AA29" s="86"/>
+      <c r="AB29" s="84"/>
+      <c r="AC29" s="85"/>
+      <c r="AD29" s="86"/>
       <c r="AE29" s="59"/>
       <c r="AF29" s="33"/>
       <c r="AG29" s="33"/>
@@ -4420,7 +4410,7 @@
       <c r="CB29" s="9"/>
       <c r="CC29" s="10"/>
     </row>
-    <row r="30" spans="1:81" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:81" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="23"/>
       <c r="B30" s="32"/>
       <c r="C30" s="25"/>
@@ -4445,12 +4435,12 @@
       <c r="V30" s="29"/>
       <c r="W30" s="30"/>
       <c r="X30" s="31"/>
-      <c r="Y30" s="26"/>
-      <c r="Z30" s="27"/>
-      <c r="AA30" s="28"/>
-      <c r="AB30" s="26"/>
-      <c r="AC30" s="27"/>
-      <c r="AD30" s="28"/>
+      <c r="Y30" s="78"/>
+      <c r="Z30" s="79"/>
+      <c r="AA30" s="80"/>
+      <c r="AB30" s="78"/>
+      <c r="AC30" s="79"/>
+      <c r="AD30" s="80"/>
       <c r="AE30" s="59"/>
       <c r="AF30" s="33"/>
       <c r="AG30" s="33"/>
@@ -4503,10 +4493,10 @@
       <c r="CB30" s="9"/>
       <c r="CC30" s="10"/>
     </row>
-    <row r="31" spans="1:81" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:81" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="23"/>
       <c r="B31" s="24" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C31" s="25"/>
       <c r="D31" s="26"/>
@@ -4530,12 +4520,12 @@
       <c r="V31" s="29"/>
       <c r="W31" s="30"/>
       <c r="X31" s="31"/>
-      <c r="Y31" s="26"/>
-      <c r="Z31" s="27"/>
-      <c r="AA31" s="28"/>
-      <c r="AB31" s="26"/>
-      <c r="AC31" s="27"/>
-      <c r="AD31" s="28"/>
+      <c r="Y31" s="78"/>
+      <c r="Z31" s="79"/>
+      <c r="AA31" s="80"/>
+      <c r="AB31" s="78"/>
+      <c r="AC31" s="79"/>
+      <c r="AD31" s="80"/>
       <c r="AE31" s="59"/>
       <c r="AF31" s="33"/>
       <c r="AG31" s="33"/>
@@ -4588,7 +4578,7 @@
       <c r="CB31" s="9"/>
       <c r="CC31" s="10"/>
     </row>
-    <row r="32" spans="1:81" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:81" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="23"/>
       <c r="B32" s="32"/>
       <c r="C32" s="25"/>
@@ -4613,12 +4603,12 @@
       <c r="V32" s="29"/>
       <c r="W32" s="30"/>
       <c r="X32" s="31"/>
-      <c r="Y32" s="26"/>
-      <c r="Z32" s="27"/>
-      <c r="AA32" s="28"/>
-      <c r="AB32" s="26"/>
-      <c r="AC32" s="27"/>
-      <c r="AD32" s="28"/>
+      <c r="Y32" s="78"/>
+      <c r="Z32" s="79"/>
+      <c r="AA32" s="80"/>
+      <c r="AB32" s="78"/>
+      <c r="AC32" s="79"/>
+      <c r="AD32" s="80"/>
       <c r="AE32" s="59"/>
       <c r="AF32" s="33"/>
       <c r="AG32" s="33"/>
@@ -4671,7 +4661,7 @@
       <c r="CB32" s="9"/>
       <c r="CC32" s="10"/>
     </row>
-    <row r="33" spans="1:81" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:81" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="23"/>
       <c r="B33" s="32"/>
       <c r="C33" s="25"/>
@@ -4696,12 +4686,12 @@
       <c r="V33" s="29"/>
       <c r="W33" s="30"/>
       <c r="X33" s="31"/>
-      <c r="Y33" s="26"/>
-      <c r="Z33" s="27"/>
-      <c r="AA33" s="28"/>
-      <c r="AB33" s="26"/>
-      <c r="AC33" s="27"/>
-      <c r="AD33" s="28"/>
+      <c r="Y33" s="78"/>
+      <c r="Z33" s="79"/>
+      <c r="AA33" s="80"/>
+      <c r="AB33" s="78"/>
+      <c r="AC33" s="79"/>
+      <c r="AD33" s="80"/>
       <c r="AE33" s="59"/>
       <c r="AF33" s="33"/>
       <c r="AG33" s="33"/>
@@ -4754,7 +4744,7 @@
       <c r="CB33" s="9"/>
       <c r="CC33" s="10"/>
     </row>
-    <row r="34" spans="1:81" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:81" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="23"/>
       <c r="B34" s="32"/>
       <c r="C34" s="25"/>
@@ -4779,12 +4769,12 @@
       <c r="V34" s="29"/>
       <c r="W34" s="30"/>
       <c r="X34" s="31"/>
-      <c r="Y34" s="26"/>
-      <c r="Z34" s="27"/>
-      <c r="AA34" s="28"/>
-      <c r="AB34" s="26"/>
-      <c r="AC34" s="27"/>
-      <c r="AD34" s="28"/>
+      <c r="Y34" s="78"/>
+      <c r="Z34" s="79"/>
+      <c r="AA34" s="80"/>
+      <c r="AB34" s="78"/>
+      <c r="AC34" s="79"/>
+      <c r="AD34" s="80"/>
       <c r="AE34" s="59"/>
       <c r="AF34" s="33"/>
       <c r="AG34" s="33"/>
@@ -4837,7 +4827,7 @@
       <c r="CB34" s="9"/>
       <c r="CC34" s="10"/>
     </row>
-    <row r="35" spans="1:81" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:81" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="23"/>
       <c r="B35" s="32"/>
       <c r="C35" s="25"/>
@@ -4862,12 +4852,12 @@
       <c r="V35" s="29"/>
       <c r="W35" s="30"/>
       <c r="X35" s="31"/>
-      <c r="Y35" s="26"/>
-      <c r="Z35" s="27"/>
-      <c r="AA35" s="28"/>
-      <c r="AB35" s="26"/>
-      <c r="AC35" s="27"/>
-      <c r="AD35" s="28"/>
+      <c r="Y35" s="78"/>
+      <c r="Z35" s="79"/>
+      <c r="AA35" s="80"/>
+      <c r="AB35" s="78"/>
+      <c r="AC35" s="79"/>
+      <c r="AD35" s="80"/>
       <c r="AE35" s="59"/>
       <c r="AF35" s="33"/>
       <c r="AG35" s="33"/>
@@ -4920,7 +4910,7 @@
       <c r="CB35" s="9"/>
       <c r="CC35" s="10"/>
     </row>
-    <row r="36" spans="1:81" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:81" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="23"/>
       <c r="B36" s="32"/>
       <c r="C36" s="25"/>
@@ -4945,12 +4935,12 @@
       <c r="V36" s="29"/>
       <c r="W36" s="30"/>
       <c r="X36" s="31"/>
-      <c r="Y36" s="26"/>
-      <c r="Z36" s="27"/>
-      <c r="AA36" s="28"/>
-      <c r="AB36" s="26"/>
-      <c r="AC36" s="27"/>
-      <c r="AD36" s="28"/>
+      <c r="Y36" s="78"/>
+      <c r="Z36" s="79"/>
+      <c r="AA36" s="80"/>
+      <c r="AB36" s="78"/>
+      <c r="AC36" s="79"/>
+      <c r="AD36" s="80"/>
       <c r="AE36" s="59"/>
       <c r="AF36" s="33"/>
       <c r="AG36" s="33"/>
@@ -5003,7 +4993,7 @@
       <c r="CB36" s="9"/>
       <c r="CC36" s="10"/>
     </row>
-    <row r="37" spans="1:81" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:81" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="23"/>
       <c r="B37" s="32"/>
       <c r="C37" s="25"/>
@@ -5028,12 +5018,12 @@
       <c r="V37" s="29"/>
       <c r="W37" s="30"/>
       <c r="X37" s="31"/>
-      <c r="Y37" s="26"/>
-      <c r="Z37" s="27"/>
-      <c r="AA37" s="28"/>
-      <c r="AB37" s="26"/>
-      <c r="AC37" s="27"/>
-      <c r="AD37" s="28"/>
+      <c r="Y37" s="78"/>
+      <c r="Z37" s="79"/>
+      <c r="AA37" s="80"/>
+      <c r="AB37" s="78"/>
+      <c r="AC37" s="79"/>
+      <c r="AD37" s="80"/>
       <c r="AE37" s="59"/>
       <c r="AF37" s="33"/>
       <c r="AG37" s="33"/>
@@ -5086,7 +5076,7 @@
       <c r="CB37" s="9"/>
       <c r="CC37" s="10"/>
     </row>
-    <row r="38" spans="1:81" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:81" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="39"/>
       <c r="B38" s="40"/>
       <c r="C38" s="41"/>
@@ -5111,12 +5101,12 @@
       <c r="V38" s="45"/>
       <c r="W38" s="46"/>
       <c r="X38" s="47"/>
-      <c r="Y38" s="42"/>
-      <c r="Z38" s="43"/>
-      <c r="AA38" s="44"/>
-      <c r="AB38" s="42"/>
-      <c r="AC38" s="43"/>
-      <c r="AD38" s="44"/>
+      <c r="Y38" s="81"/>
+      <c r="Z38" s="82"/>
+      <c r="AA38" s="83"/>
+      <c r="AB38" s="81"/>
+      <c r="AC38" s="82"/>
+      <c r="AD38" s="83"/>
       <c r="AE38" s="59"/>
       <c r="AF38" s="33"/>
       <c r="AG38" s="33"/>
@@ -5169,7 +5159,7 @@
       <c r="CB38" s="9"/>
       <c r="CC38" s="10"/>
     </row>
-    <row r="39" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="60"/>
       <c r="B39" s="49"/>
       <c r="C39" s="50"/>
@@ -5194,12 +5184,12 @@
       <c r="V39" s="51"/>
       <c r="W39" s="52"/>
       <c r="X39" s="53"/>
-      <c r="Y39" s="51"/>
-      <c r="Z39" s="52"/>
-      <c r="AA39" s="53"/>
-      <c r="AB39" s="51"/>
-      <c r="AC39" s="52"/>
-      <c r="AD39" s="53"/>
+      <c r="Y39" s="84"/>
+      <c r="Z39" s="85"/>
+      <c r="AA39" s="86"/>
+      <c r="AB39" s="84"/>
+      <c r="AC39" s="85"/>
+      <c r="AD39" s="86"/>
       <c r="AE39" s="59"/>
       <c r="AF39" s="33"/>
       <c r="AG39" s="33"/>
@@ -5252,10 +5242,10 @@
       <c r="CB39" s="9"/>
       <c r="CC39" s="10"/>
     </row>
-    <row r="40" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="61"/>
       <c r="B40" s="24" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C40" s="25"/>
       <c r="D40" s="26"/>
@@ -5279,12 +5269,12 @@
       <c r="V40" s="26"/>
       <c r="W40" s="27"/>
       <c r="X40" s="28"/>
-      <c r="Y40" s="26"/>
-      <c r="Z40" s="27"/>
-      <c r="AA40" s="28"/>
-      <c r="AB40" s="26"/>
-      <c r="AC40" s="27"/>
-      <c r="AD40" s="28"/>
+      <c r="Y40" s="78"/>
+      <c r="Z40" s="79"/>
+      <c r="AA40" s="80"/>
+      <c r="AB40" s="78"/>
+      <c r="AC40" s="79"/>
+      <c r="AD40" s="80"/>
       <c r="AE40" s="59"/>
       <c r="AF40" s="33"/>
       <c r="AG40" s="33"/>
@@ -5337,7 +5327,7 @@
       <c r="CB40" s="9"/>
       <c r="CC40" s="10"/>
     </row>
-    <row r="41" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="61"/>
       <c r="B41" s="32"/>
       <c r="C41" s="25"/>
@@ -5362,12 +5352,12 @@
       <c r="V41" s="26"/>
       <c r="W41" s="27"/>
       <c r="X41" s="28"/>
-      <c r="Y41" s="26"/>
-      <c r="Z41" s="27"/>
-      <c r="AA41" s="28"/>
-      <c r="AB41" s="26"/>
-      <c r="AC41" s="27"/>
-      <c r="AD41" s="28"/>
+      <c r="Y41" s="78"/>
+      <c r="Z41" s="79"/>
+      <c r="AA41" s="80"/>
+      <c r="AB41" s="78"/>
+      <c r="AC41" s="79"/>
+      <c r="AD41" s="80"/>
       <c r="AE41" s="59"/>
       <c r="AF41" s="33"/>
       <c r="AG41" s="33"/>
@@ -5420,7 +5410,7 @@
       <c r="CB41" s="9"/>
       <c r="CC41" s="10"/>
     </row>
-    <row r="42" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="61"/>
       <c r="B42" s="32"/>
       <c r="C42" s="25"/>
@@ -5445,12 +5435,12 @@
       <c r="V42" s="26"/>
       <c r="W42" s="27"/>
       <c r="X42" s="28"/>
-      <c r="Y42" s="26"/>
-      <c r="Z42" s="27"/>
-      <c r="AA42" s="28"/>
-      <c r="AB42" s="26"/>
-      <c r="AC42" s="27"/>
-      <c r="AD42" s="28"/>
+      <c r="Y42" s="78"/>
+      <c r="Z42" s="79"/>
+      <c r="AA42" s="80"/>
+      <c r="AB42" s="78"/>
+      <c r="AC42" s="79"/>
+      <c r="AD42" s="80"/>
       <c r="AE42" s="59"/>
       <c r="AF42" s="33"/>
       <c r="AG42" s="33"/>
@@ -5503,7 +5493,7 @@
       <c r="CB42" s="9"/>
       <c r="CC42" s="10"/>
     </row>
-    <row r="43" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="61"/>
       <c r="B43" s="32"/>
       <c r="C43" s="25"/>
@@ -5528,12 +5518,12 @@
       <c r="V43" s="26"/>
       <c r="W43" s="27"/>
       <c r="X43" s="28"/>
-      <c r="Y43" s="26"/>
-      <c r="Z43" s="27"/>
-      <c r="AA43" s="28"/>
-      <c r="AB43" s="26"/>
-      <c r="AC43" s="27"/>
-      <c r="AD43" s="28"/>
+      <c r="Y43" s="78"/>
+      <c r="Z43" s="79"/>
+      <c r="AA43" s="80"/>
+      <c r="AB43" s="78"/>
+      <c r="AC43" s="79"/>
+      <c r="AD43" s="80"/>
       <c r="AE43" s="59"/>
       <c r="AF43" s="33"/>
       <c r="AG43" s="33"/>
@@ -5586,7 +5576,7 @@
       <c r="CB43" s="9"/>
       <c r="CC43" s="10"/>
     </row>
-    <row r="44" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="62"/>
       <c r="B44" s="40"/>
       <c r="C44" s="41"/>
@@ -5611,12 +5601,12 @@
       <c r="V44" s="42"/>
       <c r="W44" s="43"/>
       <c r="X44" s="44"/>
-      <c r="Y44" s="42"/>
-      <c r="Z44" s="43"/>
-      <c r="AA44" s="44"/>
-      <c r="AB44" s="42"/>
-      <c r="AC44" s="43"/>
-      <c r="AD44" s="44"/>
+      <c r="Y44" s="81"/>
+      <c r="Z44" s="82"/>
+      <c r="AA44" s="83"/>
+      <c r="AB44" s="81"/>
+      <c r="AC44" s="82"/>
+      <c r="AD44" s="83"/>
       <c r="AE44" s="59"/>
       <c r="AF44" s="33"/>
       <c r="AG44" s="33"/>
@@ -5669,7 +5659,7 @@
       <c r="CB44" s="9"/>
       <c r="CC44" s="10"/>
     </row>
-    <row r="45" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="60"/>
       <c r="B45" s="49"/>
       <c r="C45" s="50"/>
@@ -5694,12 +5684,12 @@
       <c r="V45" s="51"/>
       <c r="W45" s="52"/>
       <c r="X45" s="53"/>
-      <c r="Y45" s="51"/>
-      <c r="Z45" s="52"/>
-      <c r="AA45" s="53"/>
-      <c r="AB45" s="51"/>
-      <c r="AC45" s="52"/>
-      <c r="AD45" s="53"/>
+      <c r="Y45" s="84"/>
+      <c r="Z45" s="85"/>
+      <c r="AA45" s="86"/>
+      <c r="AB45" s="84"/>
+      <c r="AC45" s="85"/>
+      <c r="AD45" s="86"/>
       <c r="AE45" s="59"/>
       <c r="AF45" s="33"/>
       <c r="AG45" s="33"/>
@@ -5752,7 +5742,7 @@
       <c r="CB45" s="9"/>
       <c r="CC45" s="10"/>
     </row>
-    <row r="46" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="61"/>
       <c r="B46" s="32"/>
       <c r="C46" s="25"/>
@@ -5777,12 +5767,12 @@
       <c r="V46" s="26"/>
       <c r="W46" s="27"/>
       <c r="X46" s="28"/>
-      <c r="Y46" s="26"/>
-      <c r="Z46" s="27"/>
-      <c r="AA46" s="28"/>
-      <c r="AB46" s="26"/>
-      <c r="AC46" s="27"/>
-      <c r="AD46" s="28"/>
+      <c r="Y46" s="78"/>
+      <c r="Z46" s="79"/>
+      <c r="AA46" s="80"/>
+      <c r="AB46" s="78"/>
+      <c r="AC46" s="79"/>
+      <c r="AD46" s="80"/>
       <c r="AE46" s="59"/>
       <c r="AF46" s="33"/>
       <c r="AG46" s="33"/>
@@ -5835,7 +5825,7 @@
       <c r="CB46" s="9"/>
       <c r="CC46" s="10"/>
     </row>
-    <row r="47" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="61"/>
       <c r="B47" s="32"/>
       <c r="C47" s="25"/>
@@ -5860,12 +5850,12 @@
       <c r="V47" s="26"/>
       <c r="W47" s="27"/>
       <c r="X47" s="28"/>
-      <c r="Y47" s="26"/>
-      <c r="Z47" s="27"/>
-      <c r="AA47" s="28"/>
-      <c r="AB47" s="26"/>
-      <c r="AC47" s="27"/>
-      <c r="AD47" s="28"/>
+      <c r="Y47" s="78"/>
+      <c r="Z47" s="79"/>
+      <c r="AA47" s="80"/>
+      <c r="AB47" s="78"/>
+      <c r="AC47" s="79"/>
+      <c r="AD47" s="80"/>
       <c r="AE47" s="59"/>
       <c r="AF47" s="33"/>
       <c r="AG47" s="33"/>
@@ -5918,7 +5908,7 @@
       <c r="CB47" s="9"/>
       <c r="CC47" s="10"/>
     </row>
-    <row r="48" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="61"/>
       <c r="B48" s="32"/>
       <c r="C48" s="25"/>
@@ -5943,12 +5933,12 @@
       <c r="V48" s="26"/>
       <c r="W48" s="27"/>
       <c r="X48" s="28"/>
-      <c r="Y48" s="26"/>
-      <c r="Z48" s="27"/>
-      <c r="AA48" s="28"/>
-      <c r="AB48" s="26"/>
-      <c r="AC48" s="27"/>
-      <c r="AD48" s="28"/>
+      <c r="Y48" s="78"/>
+      <c r="Z48" s="79"/>
+      <c r="AA48" s="80"/>
+      <c r="AB48" s="78"/>
+      <c r="AC48" s="79"/>
+      <c r="AD48" s="80"/>
       <c r="AE48" s="59"/>
       <c r="AF48" s="33"/>
       <c r="AG48" s="33"/>
@@ -6001,7 +5991,7 @@
       <c r="CB48" s="9"/>
       <c r="CC48" s="10"/>
     </row>
-    <row r="49" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="61"/>
       <c r="B49" s="32"/>
       <c r="C49" s="25"/>
@@ -6026,12 +6016,12 @@
       <c r="V49" s="26"/>
       <c r="W49" s="27"/>
       <c r="X49" s="28"/>
-      <c r="Y49" s="26"/>
-      <c r="Z49" s="27"/>
-      <c r="AA49" s="28"/>
-      <c r="AB49" s="26"/>
-      <c r="AC49" s="27"/>
-      <c r="AD49" s="28"/>
+      <c r="Y49" s="78"/>
+      <c r="Z49" s="79"/>
+      <c r="AA49" s="80"/>
+      <c r="AB49" s="78"/>
+      <c r="AC49" s="79"/>
+      <c r="AD49" s="80"/>
       <c r="AE49" s="59"/>
       <c r="AF49" s="33"/>
       <c r="AG49" s="33"/>
@@ -6084,7 +6074,7 @@
       <c r="CB49" s="9"/>
       <c r="CC49" s="10"/>
     </row>
-    <row r="50" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="61"/>
       <c r="B50" s="32"/>
       <c r="C50" s="25"/>
@@ -6109,12 +6099,12 @@
       <c r="V50" s="26"/>
       <c r="W50" s="27"/>
       <c r="X50" s="28"/>
-      <c r="Y50" s="26"/>
-      <c r="Z50" s="27"/>
-      <c r="AA50" s="28"/>
-      <c r="AB50" s="26"/>
-      <c r="AC50" s="27"/>
-      <c r="AD50" s="28"/>
+      <c r="Y50" s="78"/>
+      <c r="Z50" s="79"/>
+      <c r="AA50" s="80"/>
+      <c r="AB50" s="78"/>
+      <c r="AC50" s="79"/>
+      <c r="AD50" s="80"/>
       <c r="AE50" s="59"/>
       <c r="AF50" s="33"/>
       <c r="AG50" s="33"/>
@@ -6167,7 +6157,7 @@
       <c r="CB50" s="9"/>
       <c r="CC50" s="10"/>
     </row>
-    <row r="51" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="62"/>
       <c r="B51" s="40"/>
       <c r="C51" s="41"/>
@@ -6192,12 +6182,12 @@
       <c r="V51" s="42"/>
       <c r="W51" s="43"/>
       <c r="X51" s="44"/>
-      <c r="Y51" s="42"/>
-      <c r="Z51" s="43"/>
-      <c r="AA51" s="44"/>
-      <c r="AB51" s="42"/>
-      <c r="AC51" s="43"/>
-      <c r="AD51" s="44"/>
+      <c r="Y51" s="81"/>
+      <c r="Z51" s="82"/>
+      <c r="AA51" s="83"/>
+      <c r="AB51" s="81"/>
+      <c r="AC51" s="82"/>
+      <c r="AD51" s="83"/>
       <c r="AE51" s="59"/>
       <c r="AF51" s="33"/>
       <c r="AG51" s="33"/>
@@ -6250,7 +6240,7 @@
       <c r="CB51" s="9"/>
       <c r="CC51" s="10"/>
     </row>
-    <row r="52" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="60"/>
       <c r="B52" s="49"/>
       <c r="C52" s="50"/>
@@ -6275,12 +6265,12 @@
       <c r="V52" s="51"/>
       <c r="W52" s="52"/>
       <c r="X52" s="53"/>
-      <c r="Y52" s="51"/>
-      <c r="Z52" s="52"/>
-      <c r="AA52" s="53"/>
-      <c r="AB52" s="51"/>
-      <c r="AC52" s="52"/>
-      <c r="AD52" s="53"/>
+      <c r="Y52" s="84"/>
+      <c r="Z52" s="85"/>
+      <c r="AA52" s="86"/>
+      <c r="AB52" s="84"/>
+      <c r="AC52" s="85"/>
+      <c r="AD52" s="86"/>
       <c r="AE52" s="59"/>
       <c r="AF52" s="33"/>
       <c r="AG52" s="33"/>
@@ -6333,7 +6323,7 @@
       <c r="CB52" s="9"/>
       <c r="CC52" s="10"/>
     </row>
-    <row r="53" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="62"/>
       <c r="B53" s="40"/>
       <c r="C53" s="41"/>
@@ -6358,12 +6348,12 @@
       <c r="V53" s="42"/>
       <c r="W53" s="43"/>
       <c r="X53" s="44"/>
-      <c r="Y53" s="42"/>
-      <c r="Z53" s="43"/>
-      <c r="AA53" s="44"/>
-      <c r="AB53" s="42"/>
-      <c r="AC53" s="43"/>
-      <c r="AD53" s="44"/>
+      <c r="Y53" s="81"/>
+      <c r="Z53" s="82"/>
+      <c r="AA53" s="83"/>
+      <c r="AB53" s="81"/>
+      <c r="AC53" s="82"/>
+      <c r="AD53" s="83"/>
       <c r="AE53" s="59"/>
       <c r="AF53" s="33"/>
       <c r="AG53" s="33"/>
@@ -6416,7 +6406,7 @@
       <c r="CB53" s="9"/>
       <c r="CC53" s="10"/>
     </row>
-    <row r="54" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="60"/>
       <c r="B54" s="49"/>
       <c r="C54" s="50"/>
@@ -6441,12 +6431,12 @@
       <c r="V54" s="51"/>
       <c r="W54" s="52"/>
       <c r="X54" s="53"/>
-      <c r="Y54" s="51"/>
-      <c r="Z54" s="52"/>
-      <c r="AA54" s="53"/>
-      <c r="AB54" s="51"/>
-      <c r="AC54" s="52"/>
-      <c r="AD54" s="53"/>
+      <c r="Y54" s="84"/>
+      <c r="Z54" s="85"/>
+      <c r="AA54" s="86"/>
+      <c r="AB54" s="84"/>
+      <c r="AC54" s="85"/>
+      <c r="AD54" s="86"/>
       <c r="AE54" s="59"/>
       <c r="AF54" s="33"/>
       <c r="AG54" s="33"/>
@@ -6499,7 +6489,7 @@
       <c r="CB54" s="9"/>
       <c r="CC54" s="10"/>
     </row>
-    <row r="55" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="61"/>
       <c r="B55" s="32"/>
       <c r="C55" s="25"/>
@@ -6524,12 +6514,12 @@
       <c r="V55" s="26"/>
       <c r="W55" s="27"/>
       <c r="X55" s="28"/>
-      <c r="Y55" s="26"/>
-      <c r="Z55" s="27"/>
-      <c r="AA55" s="28"/>
-      <c r="AB55" s="26"/>
-      <c r="AC55" s="27"/>
-      <c r="AD55" s="28"/>
+      <c r="Y55" s="78"/>
+      <c r="Z55" s="79"/>
+      <c r="AA55" s="80"/>
+      <c r="AB55" s="78"/>
+      <c r="AC55" s="79"/>
+      <c r="AD55" s="80"/>
       <c r="AE55" s="59"/>
       <c r="AF55" s="33"/>
       <c r="AG55" s="33"/>
@@ -6582,7 +6572,7 @@
       <c r="CB55" s="9"/>
       <c r="CC55" s="10"/>
     </row>
-    <row r="56" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="61"/>
       <c r="B56" s="32"/>
       <c r="C56" s="25"/>
@@ -6607,12 +6597,12 @@
       <c r="V56" s="26"/>
       <c r="W56" s="27"/>
       <c r="X56" s="28"/>
-      <c r="Y56" s="26"/>
-      <c r="Z56" s="27"/>
-      <c r="AA56" s="28"/>
-      <c r="AB56" s="26"/>
-      <c r="AC56" s="27"/>
-      <c r="AD56" s="28"/>
+      <c r="Y56" s="78"/>
+      <c r="Z56" s="79"/>
+      <c r="AA56" s="80"/>
+      <c r="AB56" s="78"/>
+      <c r="AC56" s="79"/>
+      <c r="AD56" s="80"/>
       <c r="AE56" s="59"/>
       <c r="AF56" s="33"/>
       <c r="AG56" s="33"/>
@@ -6665,7 +6655,7 @@
       <c r="CB56" s="9"/>
       <c r="CC56" s="10"/>
     </row>
-    <row r="57" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="61"/>
       <c r="B57" s="32"/>
       <c r="C57" s="25"/>
@@ -6690,12 +6680,12 @@
       <c r="V57" s="26"/>
       <c r="W57" s="27"/>
       <c r="X57" s="28"/>
-      <c r="Y57" s="26"/>
-      <c r="Z57" s="27"/>
-      <c r="AA57" s="28"/>
-      <c r="AB57" s="26"/>
-      <c r="AC57" s="27"/>
-      <c r="AD57" s="28"/>
+      <c r="Y57" s="78"/>
+      <c r="Z57" s="79"/>
+      <c r="AA57" s="80"/>
+      <c r="AB57" s="78"/>
+      <c r="AC57" s="79"/>
+      <c r="AD57" s="80"/>
       <c r="AE57" s="59"/>
       <c r="AF57" s="33"/>
       <c r="AG57" s="33"/>
@@ -6748,7 +6738,7 @@
       <c r="CB57" s="9"/>
       <c r="CC57" s="10"/>
     </row>
-    <row r="58" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="61"/>
       <c r="B58" s="32"/>
       <c r="C58" s="25"/>
@@ -6773,12 +6763,12 @@
       <c r="V58" s="26"/>
       <c r="W58" s="27"/>
       <c r="X58" s="28"/>
-      <c r="Y58" s="26"/>
-      <c r="Z58" s="27"/>
-      <c r="AA58" s="28"/>
-      <c r="AB58" s="26"/>
-      <c r="AC58" s="27"/>
-      <c r="AD58" s="28"/>
+      <c r="Y58" s="78"/>
+      <c r="Z58" s="79"/>
+      <c r="AA58" s="80"/>
+      <c r="AB58" s="78"/>
+      <c r="AC58" s="79"/>
+      <c r="AD58" s="80"/>
       <c r="AE58" s="59"/>
       <c r="AF58" s="33"/>
       <c r="AG58" s="33"/>
@@ -6831,7 +6821,7 @@
       <c r="CB58" s="9"/>
       <c r="CC58" s="10"/>
     </row>
-    <row r="59" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="61"/>
       <c r="B59" s="32"/>
       <c r="C59" s="25"/>
@@ -6856,12 +6846,12 @@
       <c r="V59" s="26"/>
       <c r="W59" s="27"/>
       <c r="X59" s="28"/>
-      <c r="Y59" s="26"/>
-      <c r="Z59" s="27"/>
-      <c r="AA59" s="28"/>
-      <c r="AB59" s="26"/>
-      <c r="AC59" s="27"/>
-      <c r="AD59" s="28"/>
+      <c r="Y59" s="78"/>
+      <c r="Z59" s="79"/>
+      <c r="AA59" s="80"/>
+      <c r="AB59" s="78"/>
+      <c r="AC59" s="79"/>
+      <c r="AD59" s="80"/>
       <c r="AE59" s="59"/>
       <c r="AF59" s="33"/>
       <c r="AG59" s="33"/>
@@ -6914,7 +6904,7 @@
       <c r="CB59" s="9"/>
       <c r="CC59" s="10"/>
     </row>
-    <row r="60" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="61"/>
       <c r="B60" s="32"/>
       <c r="C60" s="25"/>
@@ -6939,12 +6929,12 @@
       <c r="V60" s="26"/>
       <c r="W60" s="27"/>
       <c r="X60" s="28"/>
-      <c r="Y60" s="26"/>
-      <c r="Z60" s="27"/>
-      <c r="AA60" s="28"/>
-      <c r="AB60" s="26"/>
-      <c r="AC60" s="27"/>
-      <c r="AD60" s="28"/>
+      <c r="Y60" s="78"/>
+      <c r="Z60" s="79"/>
+      <c r="AA60" s="80"/>
+      <c r="AB60" s="78"/>
+      <c r="AC60" s="79"/>
+      <c r="AD60" s="80"/>
       <c r="AE60" s="59"/>
       <c r="AF60" s="33"/>
       <c r="AG60" s="33"/>
@@ -6997,7 +6987,7 @@
       <c r="CB60" s="9"/>
       <c r="CC60" s="10"/>
     </row>
-    <row r="61" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="61"/>
       <c r="B61" s="32"/>
       <c r="C61" s="25"/>
@@ -7022,12 +7012,12 @@
       <c r="V61" s="26"/>
       <c r="W61" s="27"/>
       <c r="X61" s="28"/>
-      <c r="Y61" s="26"/>
-      <c r="Z61" s="27"/>
-      <c r="AA61" s="28"/>
-      <c r="AB61" s="26"/>
-      <c r="AC61" s="27"/>
-      <c r="AD61" s="28"/>
+      <c r="Y61" s="78"/>
+      <c r="Z61" s="79"/>
+      <c r="AA61" s="80"/>
+      <c r="AB61" s="78"/>
+      <c r="AC61" s="79"/>
+      <c r="AD61" s="80"/>
       <c r="AE61" s="59"/>
       <c r="AF61" s="33"/>
       <c r="AG61" s="33"/>
@@ -7080,7 +7070,7 @@
       <c r="CB61" s="9"/>
       <c r="CC61" s="10"/>
     </row>
-    <row r="62" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="61"/>
       <c r="B62" s="32"/>
       <c r="C62" s="25"/>
@@ -7105,12 +7095,12 @@
       <c r="V62" s="26"/>
       <c r="W62" s="27"/>
       <c r="X62" s="28"/>
-      <c r="Y62" s="26"/>
-      <c r="Z62" s="27"/>
-      <c r="AA62" s="28"/>
-      <c r="AB62" s="26"/>
-      <c r="AC62" s="27"/>
-      <c r="AD62" s="28"/>
+      <c r="Y62" s="78"/>
+      <c r="Z62" s="79"/>
+      <c r="AA62" s="80"/>
+      <c r="AB62" s="78"/>
+      <c r="AC62" s="79"/>
+      <c r="AD62" s="80"/>
       <c r="AE62" s="59"/>
       <c r="AF62" s="33"/>
       <c r="AG62" s="33"/>
@@ -7163,7 +7153,7 @@
       <c r="CB62" s="9"/>
       <c r="CC62" s="10"/>
     </row>
-    <row r="63" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="61"/>
       <c r="B63" s="32"/>
       <c r="C63" s="25"/>
@@ -7188,12 +7178,12 @@
       <c r="V63" s="26"/>
       <c r="W63" s="27"/>
       <c r="X63" s="28"/>
-      <c r="Y63" s="26"/>
-      <c r="Z63" s="27"/>
-      <c r="AA63" s="28"/>
-      <c r="AB63" s="26"/>
-      <c r="AC63" s="27"/>
-      <c r="AD63" s="28"/>
+      <c r="Y63" s="78"/>
+      <c r="Z63" s="79"/>
+      <c r="AA63" s="80"/>
+      <c r="AB63" s="78"/>
+      <c r="AC63" s="79"/>
+      <c r="AD63" s="80"/>
       <c r="AE63" s="59"/>
       <c r="AF63" s="33"/>
       <c r="AG63" s="33"/>
@@ -7246,7 +7236,7 @@
       <c r="CB63" s="9"/>
       <c r="CC63" s="10"/>
     </row>
-    <row r="64" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="62"/>
       <c r="B64" s="40"/>
       <c r="C64" s="41"/>
@@ -7271,12 +7261,12 @@
       <c r="V64" s="42"/>
       <c r="W64" s="43"/>
       <c r="X64" s="44"/>
-      <c r="Y64" s="42"/>
-      <c r="Z64" s="43"/>
-      <c r="AA64" s="44"/>
-      <c r="AB64" s="42"/>
-      <c r="AC64" s="43"/>
-      <c r="AD64" s="44"/>
+      <c r="Y64" s="81"/>
+      <c r="Z64" s="82"/>
+      <c r="AA64" s="83"/>
+      <c r="AB64" s="81"/>
+      <c r="AC64" s="82"/>
+      <c r="AD64" s="83"/>
       <c r="AE64" s="59"/>
       <c r="AF64" s="33"/>
       <c r="AG64" s="33"/>
@@ -7329,7 +7319,7 @@
       <c r="CB64" s="9"/>
       <c r="CC64" s="10"/>
     </row>
-    <row r="65" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="60"/>
       <c r="B65" s="49"/>
       <c r="C65" s="50"/>
@@ -7354,12 +7344,12 @@
       <c r="V65" s="51"/>
       <c r="W65" s="52"/>
       <c r="X65" s="53"/>
-      <c r="Y65" s="51"/>
-      <c r="Z65" s="52"/>
-      <c r="AA65" s="53"/>
-      <c r="AB65" s="51"/>
-      <c r="AC65" s="52"/>
-      <c r="AD65" s="53"/>
+      <c r="Y65" s="84"/>
+      <c r="Z65" s="85"/>
+      <c r="AA65" s="86"/>
+      <c r="AB65" s="84"/>
+      <c r="AC65" s="85"/>
+      <c r="AD65" s="86"/>
       <c r="AE65" s="59"/>
       <c r="AF65" s="33"/>
       <c r="AG65" s="33"/>
@@ -7412,7 +7402,7 @@
       <c r="CB65" s="9"/>
       <c r="CC65" s="10"/>
     </row>
-    <row r="66" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="61"/>
       <c r="B66" s="32"/>
       <c r="C66" s="25"/>
@@ -7437,12 +7427,12 @@
       <c r="V66" s="26"/>
       <c r="W66" s="27"/>
       <c r="X66" s="28"/>
-      <c r="Y66" s="26"/>
-      <c r="Z66" s="27"/>
-      <c r="AA66" s="28"/>
-      <c r="AB66" s="26"/>
-      <c r="AC66" s="27"/>
-      <c r="AD66" s="28"/>
+      <c r="Y66" s="78"/>
+      <c r="Z66" s="79"/>
+      <c r="AA66" s="80"/>
+      <c r="AB66" s="78"/>
+      <c r="AC66" s="79"/>
+      <c r="AD66" s="80"/>
       <c r="AE66" s="59"/>
       <c r="AF66" s="33"/>
       <c r="AG66" s="33"/>
@@ -7495,7 +7485,7 @@
       <c r="CB66" s="9"/>
       <c r="CC66" s="10"/>
     </row>
-    <row r="67" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="61"/>
       <c r="B67" s="32"/>
       <c r="C67" s="25"/>
@@ -7520,12 +7510,12 @@
       <c r="V67" s="26"/>
       <c r="W67" s="27"/>
       <c r="X67" s="28"/>
-      <c r="Y67" s="26"/>
-      <c r="Z67" s="27"/>
-      <c r="AA67" s="28"/>
-      <c r="AB67" s="26"/>
-      <c r="AC67" s="27"/>
-      <c r="AD67" s="28"/>
+      <c r="Y67" s="78"/>
+      <c r="Z67" s="79"/>
+      <c r="AA67" s="80"/>
+      <c r="AB67" s="78"/>
+      <c r="AC67" s="79"/>
+      <c r="AD67" s="80"/>
       <c r="AE67" s="59"/>
       <c r="AF67" s="33"/>
       <c r="AG67" s="33"/>
@@ -7578,7 +7568,7 @@
       <c r="CB67" s="9"/>
       <c r="CC67" s="10"/>
     </row>
-    <row r="68" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="61"/>
       <c r="B68" s="32"/>
       <c r="C68" s="25"/>
@@ -7603,12 +7593,12 @@
       <c r="V68" s="26"/>
       <c r="W68" s="27"/>
       <c r="X68" s="28"/>
-      <c r="Y68" s="26"/>
-      <c r="Z68" s="27"/>
-      <c r="AA68" s="28"/>
-      <c r="AB68" s="26"/>
-      <c r="AC68" s="27"/>
-      <c r="AD68" s="28"/>
+      <c r="Y68" s="78"/>
+      <c r="Z68" s="79"/>
+      <c r="AA68" s="80"/>
+      <c r="AB68" s="78"/>
+      <c r="AC68" s="79"/>
+      <c r="AD68" s="80"/>
       <c r="AE68" s="59"/>
       <c r="AF68" s="33"/>
       <c r="AG68" s="33"/>
@@ -7661,7 +7651,7 @@
       <c r="CB68" s="9"/>
       <c r="CC68" s="10"/>
     </row>
-    <row r="69" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="61"/>
       <c r="B69" s="32"/>
       <c r="C69" s="25"/>
@@ -7686,12 +7676,12 @@
       <c r="V69" s="26"/>
       <c r="W69" s="27"/>
       <c r="X69" s="28"/>
-      <c r="Y69" s="26"/>
-      <c r="Z69" s="27"/>
-      <c r="AA69" s="28"/>
-      <c r="AB69" s="26"/>
-      <c r="AC69" s="27"/>
-      <c r="AD69" s="28"/>
+      <c r="Y69" s="78"/>
+      <c r="Z69" s="79"/>
+      <c r="AA69" s="80"/>
+      <c r="AB69" s="78"/>
+      <c r="AC69" s="79"/>
+      <c r="AD69" s="80"/>
       <c r="AE69" s="59"/>
       <c r="AF69" s="33"/>
       <c r="AG69" s="33"/>
@@ -7744,7 +7734,7 @@
       <c r="CB69" s="9"/>
       <c r="CC69" s="10"/>
     </row>
-    <row r="70" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="61"/>
       <c r="B70" s="32"/>
       <c r="C70" s="25"/>
@@ -7769,12 +7759,12 @@
       <c r="V70" s="26"/>
       <c r="W70" s="27"/>
       <c r="X70" s="28"/>
-      <c r="Y70" s="26"/>
-      <c r="Z70" s="27"/>
-      <c r="AA70" s="28"/>
-      <c r="AB70" s="26"/>
-      <c r="AC70" s="27"/>
-      <c r="AD70" s="28"/>
+      <c r="Y70" s="78"/>
+      <c r="Z70" s="79"/>
+      <c r="AA70" s="80"/>
+      <c r="AB70" s="78"/>
+      <c r="AC70" s="79"/>
+      <c r="AD70" s="80"/>
       <c r="AE70" s="59"/>
       <c r="AF70" s="33"/>
       <c r="AG70" s="33"/>
@@ -7827,7 +7817,7 @@
       <c r="CB70" s="9"/>
       <c r="CC70" s="10"/>
     </row>
-    <row r="71" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="61"/>
       <c r="B71" s="32"/>
       <c r="C71" s="25"/>
@@ -7852,12 +7842,12 @@
       <c r="V71" s="26"/>
       <c r="W71" s="27"/>
       <c r="X71" s="28"/>
-      <c r="Y71" s="26"/>
-      <c r="Z71" s="27"/>
-      <c r="AA71" s="28"/>
-      <c r="AB71" s="26"/>
-      <c r="AC71" s="27"/>
-      <c r="AD71" s="28"/>
+      <c r="Y71" s="78"/>
+      <c r="Z71" s="79"/>
+      <c r="AA71" s="80"/>
+      <c r="AB71" s="78"/>
+      <c r="AC71" s="79"/>
+      <c r="AD71" s="80"/>
       <c r="AE71" s="59"/>
       <c r="AF71" s="33"/>
       <c r="AG71" s="33"/>
@@ -7910,7 +7900,7 @@
       <c r="CB71" s="9"/>
       <c r="CC71" s="10"/>
     </row>
-    <row r="72" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="61"/>
       <c r="B72" s="32"/>
       <c r="C72" s="25"/>
@@ -7935,12 +7925,12 @@
       <c r="V72" s="26"/>
       <c r="W72" s="27"/>
       <c r="X72" s="28"/>
-      <c r="Y72" s="26"/>
-      <c r="Z72" s="27"/>
-      <c r="AA72" s="28"/>
-      <c r="AB72" s="26"/>
-      <c r="AC72" s="27"/>
-      <c r="AD72" s="28"/>
+      <c r="Y72" s="78"/>
+      <c r="Z72" s="79"/>
+      <c r="AA72" s="80"/>
+      <c r="AB72" s="78"/>
+      <c r="AC72" s="79"/>
+      <c r="AD72" s="80"/>
       <c r="AE72" s="59"/>
       <c r="AF72" s="33"/>
       <c r="AG72" s="33"/>
@@ -7993,7 +7983,7 @@
       <c r="CB72" s="9"/>
       <c r="CC72" s="10"/>
     </row>
-    <row r="73" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="61"/>
       <c r="B73" s="32"/>
       <c r="C73" s="25"/>
@@ -8018,12 +8008,12 @@
       <c r="V73" s="26"/>
       <c r="W73" s="27"/>
       <c r="X73" s="28"/>
-      <c r="Y73" s="26"/>
-      <c r="Z73" s="27"/>
-      <c r="AA73" s="28"/>
-      <c r="AB73" s="26"/>
-      <c r="AC73" s="27"/>
-      <c r="AD73" s="28"/>
+      <c r="Y73" s="78"/>
+      <c r="Z73" s="79"/>
+      <c r="AA73" s="80"/>
+      <c r="AB73" s="78"/>
+      <c r="AC73" s="79"/>
+      <c r="AD73" s="80"/>
       <c r="AE73" s="59"/>
       <c r="AF73" s="33"/>
       <c r="AG73" s="33"/>
@@ -8076,7 +8066,7 @@
       <c r="CB73" s="9"/>
       <c r="CC73" s="10"/>
     </row>
-    <row r="74" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="62"/>
       <c r="B74" s="40"/>
       <c r="C74" s="41"/>
@@ -8101,12 +8091,12 @@
       <c r="V74" s="42"/>
       <c r="W74" s="43"/>
       <c r="X74" s="44"/>
-      <c r="Y74" s="42"/>
-      <c r="Z74" s="43"/>
-      <c r="AA74" s="44"/>
-      <c r="AB74" s="42"/>
-      <c r="AC74" s="43"/>
-      <c r="AD74" s="44"/>
+      <c r="Y74" s="81"/>
+      <c r="Z74" s="82"/>
+      <c r="AA74" s="83"/>
+      <c r="AB74" s="81"/>
+      <c r="AC74" s="82"/>
+      <c r="AD74" s="83"/>
       <c r="AE74" s="59"/>
       <c r="AF74" s="33"/>
       <c r="AG74" s="33"/>
@@ -8159,7 +8149,7 @@
       <c r="CB74" s="9"/>
       <c r="CC74" s="10"/>
     </row>
-    <row r="75" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="60"/>
       <c r="B75" s="49"/>
       <c r="C75" s="50"/>
@@ -8184,12 +8174,12 @@
       <c r="V75" s="51"/>
       <c r="W75" s="52"/>
       <c r="X75" s="53"/>
-      <c r="Y75" s="51"/>
-      <c r="Z75" s="52"/>
-      <c r="AA75" s="53"/>
-      <c r="AB75" s="51"/>
-      <c r="AC75" s="52"/>
-      <c r="AD75" s="53"/>
+      <c r="Y75" s="84"/>
+      <c r="Z75" s="85"/>
+      <c r="AA75" s="86"/>
+      <c r="AB75" s="84"/>
+      <c r="AC75" s="85"/>
+      <c r="AD75" s="86"/>
       <c r="AE75" s="59"/>
       <c r="AF75" s="33"/>
       <c r="AG75" s="33"/>
@@ -8242,7 +8232,7 @@
       <c r="CB75" s="9"/>
       <c r="CC75" s="10"/>
     </row>
-    <row r="76" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="61"/>
       <c r="B76" s="32"/>
       <c r="C76" s="25"/>
@@ -8267,12 +8257,12 @@
       <c r="V76" s="26"/>
       <c r="W76" s="27"/>
       <c r="X76" s="28"/>
-      <c r="Y76" s="26"/>
-      <c r="Z76" s="27"/>
-      <c r="AA76" s="28"/>
-      <c r="AB76" s="26"/>
-      <c r="AC76" s="27"/>
-      <c r="AD76" s="28"/>
+      <c r="Y76" s="78"/>
+      <c r="Z76" s="79"/>
+      <c r="AA76" s="80"/>
+      <c r="AB76" s="78"/>
+      <c r="AC76" s="79"/>
+      <c r="AD76" s="80"/>
       <c r="AE76" s="59"/>
       <c r="AF76" s="33"/>
       <c r="AG76" s="33"/>
@@ -8325,7 +8315,7 @@
       <c r="CB76" s="9"/>
       <c r="CC76" s="10"/>
     </row>
-    <row r="77" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="61"/>
       <c r="B77" s="32"/>
       <c r="C77" s="25"/>
@@ -8350,12 +8340,12 @@
       <c r="V77" s="26"/>
       <c r="W77" s="27"/>
       <c r="X77" s="28"/>
-      <c r="Y77" s="26"/>
-      <c r="Z77" s="27"/>
-      <c r="AA77" s="28"/>
-      <c r="AB77" s="26"/>
-      <c r="AC77" s="27"/>
-      <c r="AD77" s="28"/>
+      <c r="Y77" s="78"/>
+      <c r="Z77" s="79"/>
+      <c r="AA77" s="80"/>
+      <c r="AB77" s="78"/>
+      <c r="AC77" s="79"/>
+      <c r="AD77" s="80"/>
       <c r="AE77" s="59"/>
       <c r="AF77" s="33"/>
       <c r="AG77" s="33"/>
@@ -8408,7 +8398,7 @@
       <c r="CB77" s="9"/>
       <c r="CC77" s="10"/>
     </row>
-    <row r="78" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="61"/>
       <c r="B78" s="32"/>
       <c r="C78" s="25"/>
@@ -8433,12 +8423,12 @@
       <c r="V78" s="26"/>
       <c r="W78" s="27"/>
       <c r="X78" s="28"/>
-      <c r="Y78" s="26"/>
-      <c r="Z78" s="27"/>
-      <c r="AA78" s="28"/>
-      <c r="AB78" s="26"/>
-      <c r="AC78" s="27"/>
-      <c r="AD78" s="28"/>
+      <c r="Y78" s="78"/>
+      <c r="Z78" s="79"/>
+      <c r="AA78" s="80"/>
+      <c r="AB78" s="78"/>
+      <c r="AC78" s="79"/>
+      <c r="AD78" s="80"/>
       <c r="AE78" s="59"/>
       <c r="AF78" s="33"/>
       <c r="AG78" s="33"/>
@@ -8491,7 +8481,7 @@
       <c r="CB78" s="9"/>
       <c r="CC78" s="10"/>
     </row>
-    <row r="79" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="61"/>
       <c r="B79" s="32"/>
       <c r="C79" s="25"/>
@@ -8516,12 +8506,12 @@
       <c r="V79" s="26"/>
       <c r="W79" s="27"/>
       <c r="X79" s="28"/>
-      <c r="Y79" s="26"/>
-      <c r="Z79" s="27"/>
-      <c r="AA79" s="28"/>
-      <c r="AB79" s="26"/>
-      <c r="AC79" s="27"/>
-      <c r="AD79" s="28"/>
+      <c r="Y79" s="78"/>
+      <c r="Z79" s="79"/>
+      <c r="AA79" s="80"/>
+      <c r="AB79" s="78"/>
+      <c r="AC79" s="79"/>
+      <c r="AD79" s="80"/>
       <c r="AE79" s="59"/>
       <c r="AF79" s="33"/>
       <c r="AG79" s="33"/>
@@ -8574,7 +8564,7 @@
       <c r="CB79" s="9"/>
       <c r="CC79" s="10"/>
     </row>
-    <row r="80" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="61"/>
       <c r="B80" s="32"/>
       <c r="C80" s="25"/>
@@ -8599,12 +8589,12 @@
       <c r="V80" s="26"/>
       <c r="W80" s="27"/>
       <c r="X80" s="28"/>
-      <c r="Y80" s="26"/>
-      <c r="Z80" s="27"/>
-      <c r="AA80" s="28"/>
-      <c r="AB80" s="26"/>
-      <c r="AC80" s="27"/>
-      <c r="AD80" s="28"/>
+      <c r="Y80" s="78"/>
+      <c r="Z80" s="79"/>
+      <c r="AA80" s="80"/>
+      <c r="AB80" s="78"/>
+      <c r="AC80" s="79"/>
+      <c r="AD80" s="80"/>
       <c r="AE80" s="59"/>
       <c r="AF80" s="33"/>
       <c r="AG80" s="33"/>
@@ -8657,7 +8647,7 @@
       <c r="CB80" s="9"/>
       <c r="CC80" s="10"/>
     </row>
-    <row r="81" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="61"/>
       <c r="B81" s="32"/>
       <c r="C81" s="25"/>
@@ -8682,12 +8672,12 @@
       <c r="V81" s="26"/>
       <c r="W81" s="27"/>
       <c r="X81" s="28"/>
-      <c r="Y81" s="26"/>
-      <c r="Z81" s="27"/>
-      <c r="AA81" s="28"/>
-      <c r="AB81" s="26"/>
-      <c r="AC81" s="27"/>
-      <c r="AD81" s="28"/>
+      <c r="Y81" s="78"/>
+      <c r="Z81" s="79"/>
+      <c r="AA81" s="80"/>
+      <c r="AB81" s="78"/>
+      <c r="AC81" s="79"/>
+      <c r="AD81" s="80"/>
       <c r="AE81" s="59"/>
       <c r="AF81" s="33"/>
       <c r="AG81" s="33"/>
@@ -8740,7 +8730,7 @@
       <c r="CB81" s="9"/>
       <c r="CC81" s="10"/>
     </row>
-    <row r="82" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="61"/>
       <c r="B82" s="32"/>
       <c r="C82" s="25"/>
@@ -8765,12 +8755,12 @@
       <c r="V82" s="26"/>
       <c r="W82" s="27"/>
       <c r="X82" s="28"/>
-      <c r="Y82" s="26"/>
-      <c r="Z82" s="27"/>
-      <c r="AA82" s="28"/>
-      <c r="AB82" s="26"/>
-      <c r="AC82" s="27"/>
-      <c r="AD82" s="28"/>
+      <c r="Y82" s="78"/>
+      <c r="Z82" s="79"/>
+      <c r="AA82" s="80"/>
+      <c r="AB82" s="78"/>
+      <c r="AC82" s="79"/>
+      <c r="AD82" s="80"/>
       <c r="AE82" s="59"/>
       <c r="AF82" s="33"/>
       <c r="AG82" s="33"/>
@@ -8823,7 +8813,7 @@
       <c r="CB82" s="9"/>
       <c r="CC82" s="10"/>
     </row>
-    <row r="83" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="61"/>
       <c r="B83" s="32"/>
       <c r="C83" s="25"/>
@@ -8848,12 +8838,12 @@
       <c r="V83" s="26"/>
       <c r="W83" s="27"/>
       <c r="X83" s="28"/>
-      <c r="Y83" s="26"/>
-      <c r="Z83" s="27"/>
-      <c r="AA83" s="28"/>
-      <c r="AB83" s="26"/>
-      <c r="AC83" s="27"/>
-      <c r="AD83" s="28"/>
+      <c r="Y83" s="78"/>
+      <c r="Z83" s="79"/>
+      <c r="AA83" s="80"/>
+      <c r="AB83" s="78"/>
+      <c r="AC83" s="79"/>
+      <c r="AD83" s="80"/>
       <c r="AE83" s="59"/>
       <c r="AF83" s="33"/>
       <c r="AG83" s="33"/>
@@ -8906,7 +8896,7 @@
       <c r="CB83" s="9"/>
       <c r="CC83" s="10"/>
     </row>
-    <row r="84" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="62"/>
       <c r="B84" s="40"/>
       <c r="C84" s="41"/>
@@ -8931,12 +8921,12 @@
       <c r="V84" s="42"/>
       <c r="W84" s="43"/>
       <c r="X84" s="44"/>
-      <c r="Y84" s="42"/>
-      <c r="Z84" s="43"/>
-      <c r="AA84" s="44"/>
-      <c r="AB84" s="42"/>
-      <c r="AC84" s="43"/>
-      <c r="AD84" s="44"/>
+      <c r="Y84" s="81"/>
+      <c r="Z84" s="82"/>
+      <c r="AA84" s="83"/>
+      <c r="AB84" s="81"/>
+      <c r="AC84" s="82"/>
+      <c r="AD84" s="83"/>
       <c r="AE84" s="59"/>
       <c r="AF84" s="33"/>
       <c r="AG84" s="33"/>
@@ -8989,7 +8979,7 @@
       <c r="CB84" s="9"/>
       <c r="CC84" s="10"/>
     </row>
-    <row r="85" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="60"/>
       <c r="B85" s="49"/>
       <c r="C85" s="50"/>
@@ -9014,12 +9004,12 @@
       <c r="V85" s="51"/>
       <c r="W85" s="52"/>
       <c r="X85" s="53"/>
-      <c r="Y85" s="51"/>
-      <c r="Z85" s="52"/>
-      <c r="AA85" s="53"/>
-      <c r="AB85" s="51"/>
-      <c r="AC85" s="52"/>
-      <c r="AD85" s="53"/>
+      <c r="Y85" s="84"/>
+      <c r="Z85" s="85"/>
+      <c r="AA85" s="86"/>
+      <c r="AB85" s="84"/>
+      <c r="AC85" s="85"/>
+      <c r="AD85" s="86"/>
       <c r="AE85" s="59"/>
       <c r="AF85" s="33"/>
       <c r="AG85" s="33"/>
@@ -9072,7 +9062,7 @@
       <c r="CB85" s="9"/>
       <c r="CC85" s="10"/>
     </row>
-    <row r="86" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="61"/>
       <c r="B86" s="32"/>
       <c r="C86" s="25"/>
@@ -9097,12 +9087,12 @@
       <c r="V86" s="26"/>
       <c r="W86" s="27"/>
       <c r="X86" s="28"/>
-      <c r="Y86" s="26"/>
-      <c r="Z86" s="27"/>
-      <c r="AA86" s="28"/>
-      <c r="AB86" s="26"/>
-      <c r="AC86" s="27"/>
-      <c r="AD86" s="28"/>
+      <c r="Y86" s="78"/>
+      <c r="Z86" s="79"/>
+      <c r="AA86" s="80"/>
+      <c r="AB86" s="78"/>
+      <c r="AC86" s="79"/>
+      <c r="AD86" s="80"/>
       <c r="AE86" s="59"/>
       <c r="AF86" s="33"/>
       <c r="AG86" s="33"/>
@@ -9155,7 +9145,7 @@
       <c r="CB86" s="9"/>
       <c r="CC86" s="10"/>
     </row>
-    <row r="87" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="61"/>
       <c r="B87" s="32"/>
       <c r="C87" s="25"/>
@@ -9180,12 +9170,12 @@
       <c r="V87" s="26"/>
       <c r="W87" s="27"/>
       <c r="X87" s="28"/>
-      <c r="Y87" s="26"/>
-      <c r="Z87" s="27"/>
-      <c r="AA87" s="28"/>
-      <c r="AB87" s="26"/>
-      <c r="AC87" s="27"/>
-      <c r="AD87" s="28"/>
+      <c r="Y87" s="78"/>
+      <c r="Z87" s="79"/>
+      <c r="AA87" s="80"/>
+      <c r="AB87" s="78"/>
+      <c r="AC87" s="79"/>
+      <c r="AD87" s="80"/>
       <c r="AE87" s="59"/>
       <c r="AF87" s="33"/>
       <c r="AG87" s="33"/>
@@ -9238,7 +9228,7 @@
       <c r="CB87" s="9"/>
       <c r="CC87" s="10"/>
     </row>
-    <row r="88" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="61"/>
       <c r="B88" s="32"/>
       <c r="C88" s="25"/>
@@ -9263,12 +9253,12 @@
       <c r="V88" s="26"/>
       <c r="W88" s="27"/>
       <c r="X88" s="28"/>
-      <c r="Y88" s="26"/>
-      <c r="Z88" s="27"/>
-      <c r="AA88" s="28"/>
-      <c r="AB88" s="26"/>
-      <c r="AC88" s="27"/>
-      <c r="AD88" s="28"/>
+      <c r="Y88" s="78"/>
+      <c r="Z88" s="79"/>
+      <c r="AA88" s="80"/>
+      <c r="AB88" s="78"/>
+      <c r="AC88" s="79"/>
+      <c r="AD88" s="80"/>
       <c r="AE88" s="59"/>
       <c r="AF88" s="33"/>
       <c r="AG88" s="33"/>
@@ -9321,7 +9311,7 @@
       <c r="CB88" s="9"/>
       <c r="CC88" s="10"/>
     </row>
-    <row r="89" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="61"/>
       <c r="B89" s="32"/>
       <c r="C89" s="25"/>
@@ -9346,12 +9336,12 @@
       <c r="V89" s="26"/>
       <c r="W89" s="27"/>
       <c r="X89" s="28"/>
-      <c r="Y89" s="26"/>
-      <c r="Z89" s="27"/>
-      <c r="AA89" s="28"/>
-      <c r="AB89" s="26"/>
-      <c r="AC89" s="27"/>
-      <c r="AD89" s="28"/>
+      <c r="Y89" s="78"/>
+      <c r="Z89" s="79"/>
+      <c r="AA89" s="80"/>
+      <c r="AB89" s="78"/>
+      <c r="AC89" s="79"/>
+      <c r="AD89" s="80"/>
       <c r="AE89" s="59"/>
       <c r="AF89" s="33"/>
       <c r="AG89" s="33"/>
@@ -9404,7 +9394,7 @@
       <c r="CB89" s="9"/>
       <c r="CC89" s="10"/>
     </row>
-    <row r="90" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="61"/>
       <c r="B90" s="32"/>
       <c r="C90" s="25"/>
@@ -9429,12 +9419,12 @@
       <c r="V90" s="26"/>
       <c r="W90" s="27"/>
       <c r="X90" s="28"/>
-      <c r="Y90" s="26"/>
-      <c r="Z90" s="27"/>
-      <c r="AA90" s="28"/>
-      <c r="AB90" s="26"/>
-      <c r="AC90" s="27"/>
-      <c r="AD90" s="28"/>
+      <c r="Y90" s="78"/>
+      <c r="Z90" s="79"/>
+      <c r="AA90" s="80"/>
+      <c r="AB90" s="78"/>
+      <c r="AC90" s="79"/>
+      <c r="AD90" s="80"/>
       <c r="AE90" s="59"/>
       <c r="AF90" s="33"/>
       <c r="AG90" s="33"/>
@@ -9487,7 +9477,7 @@
       <c r="CB90" s="9"/>
       <c r="CC90" s="10"/>
     </row>
-    <row r="91" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="61"/>
       <c r="B91" s="32"/>
       <c r="C91" s="25"/>
@@ -9512,12 +9502,12 @@
       <c r="V91" s="26"/>
       <c r="W91" s="27"/>
       <c r="X91" s="28"/>
-      <c r="Y91" s="26"/>
-      <c r="Z91" s="27"/>
-      <c r="AA91" s="28"/>
-      <c r="AB91" s="26"/>
-      <c r="AC91" s="27"/>
-      <c r="AD91" s="28"/>
+      <c r="Y91" s="78"/>
+      <c r="Z91" s="79"/>
+      <c r="AA91" s="80"/>
+      <c r="AB91" s="78"/>
+      <c r="AC91" s="79"/>
+      <c r="AD91" s="80"/>
       <c r="AE91" s="59"/>
       <c r="AF91" s="33"/>
       <c r="AG91" s="33"/>
@@ -9570,7 +9560,7 @@
       <c r="CB91" s="9"/>
       <c r="CC91" s="10"/>
     </row>
-    <row r="92" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="61"/>
       <c r="B92" s="32"/>
       <c r="C92" s="25"/>
@@ -9595,12 +9585,12 @@
       <c r="V92" s="26"/>
       <c r="W92" s="27"/>
       <c r="X92" s="28"/>
-      <c r="Y92" s="26"/>
-      <c r="Z92" s="27"/>
-      <c r="AA92" s="28"/>
-      <c r="AB92" s="26"/>
-      <c r="AC92" s="27"/>
-      <c r="AD92" s="28"/>
+      <c r="Y92" s="78"/>
+      <c r="Z92" s="79"/>
+      <c r="AA92" s="80"/>
+      <c r="AB92" s="78"/>
+      <c r="AC92" s="79"/>
+      <c r="AD92" s="80"/>
       <c r="AE92" s="59"/>
       <c r="AF92" s="33"/>
       <c r="AG92" s="33"/>
@@ -9653,7 +9643,7 @@
       <c r="CB92" s="9"/>
       <c r="CC92" s="10"/>
     </row>
-    <row r="93" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="61"/>
       <c r="B93" s="32"/>
       <c r="C93" s="25"/>
@@ -9678,12 +9668,12 @@
       <c r="V93" s="26"/>
       <c r="W93" s="27"/>
       <c r="X93" s="28"/>
-      <c r="Y93" s="26"/>
-      <c r="Z93" s="27"/>
-      <c r="AA93" s="28"/>
-      <c r="AB93" s="26"/>
-      <c r="AC93" s="27"/>
-      <c r="AD93" s="28"/>
+      <c r="Y93" s="78"/>
+      <c r="Z93" s="79"/>
+      <c r="AA93" s="80"/>
+      <c r="AB93" s="78"/>
+      <c r="AC93" s="79"/>
+      <c r="AD93" s="80"/>
       <c r="AE93" s="59"/>
       <c r="AF93" s="33"/>
       <c r="AG93" s="33"/>
@@ -9736,7 +9726,7 @@
       <c r="CB93" s="9"/>
       <c r="CC93" s="10"/>
     </row>
-    <row r="94" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="61"/>
       <c r="B94" s="32"/>
       <c r="C94" s="25"/>
@@ -9761,12 +9751,12 @@
       <c r="V94" s="26"/>
       <c r="W94" s="27"/>
       <c r="X94" s="28"/>
-      <c r="Y94" s="26"/>
-      <c r="Z94" s="27"/>
-      <c r="AA94" s="28"/>
-      <c r="AB94" s="26"/>
-      <c r="AC94" s="27"/>
-      <c r="AD94" s="28"/>
+      <c r="Y94" s="78"/>
+      <c r="Z94" s="79"/>
+      <c r="AA94" s="80"/>
+      <c r="AB94" s="78"/>
+      <c r="AC94" s="79"/>
+      <c r="AD94" s="80"/>
       <c r="AE94" s="59"/>
       <c r="AF94" s="33"/>
       <c r="AG94" s="33"/>
@@ -9819,7 +9809,7 @@
       <c r="CB94" s="9"/>
       <c r="CC94" s="10"/>
     </row>
-    <row r="95" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="61"/>
       <c r="B95" s="32"/>
       <c r="C95" s="25"/>
@@ -9844,12 +9834,12 @@
       <c r="V95" s="26"/>
       <c r="W95" s="27"/>
       <c r="X95" s="28"/>
-      <c r="Y95" s="26"/>
-      <c r="Z95" s="27"/>
-      <c r="AA95" s="28"/>
-      <c r="AB95" s="26"/>
-      <c r="AC95" s="27"/>
-      <c r="AD95" s="28"/>
+      <c r="Y95" s="78"/>
+      <c r="Z95" s="79"/>
+      <c r="AA95" s="80"/>
+      <c r="AB95" s="78"/>
+      <c r="AC95" s="79"/>
+      <c r="AD95" s="80"/>
       <c r="AE95" s="59"/>
       <c r="AF95" s="33"/>
       <c r="AG95" s="33"/>
@@ -9902,7 +9892,7 @@
       <c r="CB95" s="9"/>
       <c r="CC95" s="10"/>
     </row>
-    <row r="96" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="61"/>
       <c r="B96" s="32"/>
       <c r="C96" s="25"/>
@@ -9927,12 +9917,12 @@
       <c r="V96" s="26"/>
       <c r="W96" s="27"/>
       <c r="X96" s="28"/>
-      <c r="Y96" s="26"/>
-      <c r="Z96" s="27"/>
-      <c r="AA96" s="28"/>
-      <c r="AB96" s="26"/>
-      <c r="AC96" s="27"/>
-      <c r="AD96" s="28"/>
+      <c r="Y96" s="78"/>
+      <c r="Z96" s="79"/>
+      <c r="AA96" s="80"/>
+      <c r="AB96" s="78"/>
+      <c r="AC96" s="79"/>
+      <c r="AD96" s="80"/>
       <c r="AE96" s="59"/>
       <c r="AF96" s="33"/>
       <c r="AG96" s="33"/>
@@ -9985,7 +9975,7 @@
       <c r="CB96" s="9"/>
       <c r="CC96" s="10"/>
     </row>
-    <row r="97" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="62"/>
       <c r="B97" s="40"/>
       <c r="C97" s="41"/>
@@ -10010,12 +10000,12 @@
       <c r="V97" s="42"/>
       <c r="W97" s="43"/>
       <c r="X97" s="44"/>
-      <c r="Y97" s="42"/>
-      <c r="Z97" s="43"/>
-      <c r="AA97" s="44"/>
-      <c r="AB97" s="42"/>
-      <c r="AC97" s="43"/>
-      <c r="AD97" s="44"/>
+      <c r="Y97" s="81"/>
+      <c r="Z97" s="82"/>
+      <c r="AA97" s="83"/>
+      <c r="AB97" s="81"/>
+      <c r="AC97" s="82"/>
+      <c r="AD97" s="83"/>
       <c r="AE97" s="59"/>
       <c r="AF97" s="33"/>
       <c r="AG97" s="33"/>
@@ -10068,7 +10058,7 @@
       <c r="CB97" s="9"/>
       <c r="CC97" s="10"/>
     </row>
-    <row r="98" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="60"/>
       <c r="B98" s="49"/>
       <c r="C98" s="50"/>
@@ -10093,12 +10083,12 @@
       <c r="V98" s="51"/>
       <c r="W98" s="52"/>
       <c r="X98" s="53"/>
-      <c r="Y98" s="51"/>
-      <c r="Z98" s="52"/>
-      <c r="AA98" s="53"/>
-      <c r="AB98" s="51"/>
-      <c r="AC98" s="52"/>
-      <c r="AD98" s="53"/>
+      <c r="Y98" s="84"/>
+      <c r="Z98" s="85"/>
+      <c r="AA98" s="86"/>
+      <c r="AB98" s="84"/>
+      <c r="AC98" s="85"/>
+      <c r="AD98" s="86"/>
       <c r="AE98" s="59"/>
       <c r="AF98" s="33"/>
       <c r="AG98" s="33"/>
@@ -10151,7 +10141,7 @@
       <c r="CB98" s="9"/>
       <c r="CC98" s="10"/>
     </row>
-    <row r="99" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="61"/>
       <c r="B99" s="32"/>
       <c r="C99" s="25"/>
@@ -10176,12 +10166,12 @@
       <c r="V99" s="26"/>
       <c r="W99" s="27"/>
       <c r="X99" s="28"/>
-      <c r="Y99" s="26"/>
-      <c r="Z99" s="27"/>
-      <c r="AA99" s="28"/>
-      <c r="AB99" s="26"/>
-      <c r="AC99" s="27"/>
-      <c r="AD99" s="28"/>
+      <c r="Y99" s="78"/>
+      <c r="Z99" s="79"/>
+      <c r="AA99" s="80"/>
+      <c r="AB99" s="78"/>
+      <c r="AC99" s="79"/>
+      <c r="AD99" s="80"/>
       <c r="AE99" s="59"/>
       <c r="AF99" s="33"/>
       <c r="AG99" s="33"/>
@@ -10234,7 +10224,7 @@
       <c r="CB99" s="9"/>
       <c r="CC99" s="10"/>
     </row>
-    <row r="100" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="61"/>
       <c r="B100" s="32"/>
       <c r="C100" s="25"/>
@@ -10259,12 +10249,12 @@
       <c r="V100" s="26"/>
       <c r="W100" s="27"/>
       <c r="X100" s="28"/>
-      <c r="Y100" s="26"/>
-      <c r="Z100" s="27"/>
-      <c r="AA100" s="28"/>
-      <c r="AB100" s="26"/>
-      <c r="AC100" s="27"/>
-      <c r="AD100" s="28"/>
+      <c r="Y100" s="78"/>
+      <c r="Z100" s="79"/>
+      <c r="AA100" s="80"/>
+      <c r="AB100" s="78"/>
+      <c r="AC100" s="79"/>
+      <c r="AD100" s="80"/>
       <c r="AE100" s="59"/>
       <c r="AF100" s="33"/>
       <c r="AG100" s="33"/>
@@ -10317,7 +10307,7 @@
       <c r="CB100" s="9"/>
       <c r="CC100" s="10"/>
     </row>
-    <row r="101" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="61"/>
       <c r="B101" s="32"/>
       <c r="C101" s="25"/>
@@ -10342,12 +10332,12 @@
       <c r="V101" s="26"/>
       <c r="W101" s="27"/>
       <c r="X101" s="28"/>
-      <c r="Y101" s="26"/>
-      <c r="Z101" s="27"/>
-      <c r="AA101" s="28"/>
-      <c r="AB101" s="26"/>
-      <c r="AC101" s="27"/>
-      <c r="AD101" s="28"/>
+      <c r="Y101" s="78"/>
+      <c r="Z101" s="79"/>
+      <c r="AA101" s="80"/>
+      <c r="AB101" s="78"/>
+      <c r="AC101" s="79"/>
+      <c r="AD101" s="80"/>
       <c r="AE101" s="59"/>
       <c r="AF101" s="33"/>
       <c r="AG101" s="33"/>
@@ -10400,7 +10390,7 @@
       <c r="CB101" s="9"/>
       <c r="CC101" s="10"/>
     </row>
-    <row r="102" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="61"/>
       <c r="B102" s="32"/>
       <c r="C102" s="25"/>
@@ -10425,12 +10415,12 @@
       <c r="V102" s="26"/>
       <c r="W102" s="27"/>
       <c r="X102" s="28"/>
-      <c r="Y102" s="26"/>
-      <c r="Z102" s="27"/>
-      <c r="AA102" s="28"/>
-      <c r="AB102" s="26"/>
-      <c r="AC102" s="27"/>
-      <c r="AD102" s="28"/>
+      <c r="Y102" s="78"/>
+      <c r="Z102" s="79"/>
+      <c r="AA102" s="80"/>
+      <c r="AB102" s="78"/>
+      <c r="AC102" s="79"/>
+      <c r="AD102" s="80"/>
       <c r="AE102" s="59"/>
       <c r="AF102" s="33"/>
       <c r="AG102" s="33"/>
@@ -10483,7 +10473,7 @@
       <c r="CB102" s="9"/>
       <c r="CC102" s="10"/>
     </row>
-    <row r="103" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="61"/>
       <c r="B103" s="32"/>
       <c r="C103" s="25"/>
@@ -10508,12 +10498,12 @@
       <c r="V103" s="26"/>
       <c r="W103" s="27"/>
       <c r="X103" s="28"/>
-      <c r="Y103" s="26"/>
-      <c r="Z103" s="27"/>
-      <c r="AA103" s="28"/>
-      <c r="AB103" s="26"/>
-      <c r="AC103" s="27"/>
-      <c r="AD103" s="28"/>
+      <c r="Y103" s="78"/>
+      <c r="Z103" s="79"/>
+      <c r="AA103" s="80"/>
+      <c r="AB103" s="78"/>
+      <c r="AC103" s="79"/>
+      <c r="AD103" s="80"/>
       <c r="AE103" s="59"/>
       <c r="AF103" s="33"/>
       <c r="AG103" s="33"/>
@@ -10566,7 +10556,7 @@
       <c r="CB103" s="9"/>
       <c r="CC103" s="10"/>
     </row>
-    <row r="104" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="61"/>
       <c r="B104" s="32"/>
       <c r="C104" s="25"/>
@@ -10591,12 +10581,12 @@
       <c r="V104" s="26"/>
       <c r="W104" s="27"/>
       <c r="X104" s="28"/>
-      <c r="Y104" s="26"/>
-      <c r="Z104" s="27"/>
-      <c r="AA104" s="28"/>
-      <c r="AB104" s="26"/>
-      <c r="AC104" s="27"/>
-      <c r="AD104" s="28"/>
+      <c r="Y104" s="78"/>
+      <c r="Z104" s="79"/>
+      <c r="AA104" s="80"/>
+      <c r="AB104" s="78"/>
+      <c r="AC104" s="79"/>
+      <c r="AD104" s="80"/>
       <c r="AE104" s="59"/>
       <c r="AF104" s="33"/>
       <c r="AG104" s="33"/>
@@ -10649,7 +10639,7 @@
       <c r="CB104" s="9"/>
       <c r="CC104" s="10"/>
     </row>
-    <row r="105" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="61"/>
       <c r="B105" s="32"/>
       <c r="C105" s="25"/>
@@ -10674,12 +10664,12 @@
       <c r="V105" s="26"/>
       <c r="W105" s="27"/>
       <c r="X105" s="28"/>
-      <c r="Y105" s="26"/>
-      <c r="Z105" s="27"/>
-      <c r="AA105" s="28"/>
-      <c r="AB105" s="26"/>
-      <c r="AC105" s="27"/>
-      <c r="AD105" s="28"/>
+      <c r="Y105" s="78"/>
+      <c r="Z105" s="79"/>
+      <c r="AA105" s="80"/>
+      <c r="AB105" s="78"/>
+      <c r="AC105" s="79"/>
+      <c r="AD105" s="80"/>
       <c r="AE105" s="59"/>
       <c r="AF105" s="33"/>
       <c r="AG105" s="33"/>
@@ -10732,7 +10722,7 @@
       <c r="CB105" s="9"/>
       <c r="CC105" s="10"/>
     </row>
-    <row r="106" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="61"/>
       <c r="B106" s="32"/>
       <c r="C106" s="25"/>
@@ -10757,12 +10747,12 @@
       <c r="V106" s="26"/>
       <c r="W106" s="27"/>
       <c r="X106" s="28"/>
-      <c r="Y106" s="26"/>
-      <c r="Z106" s="27"/>
-      <c r="AA106" s="28"/>
-      <c r="AB106" s="26"/>
-      <c r="AC106" s="27"/>
-      <c r="AD106" s="28"/>
+      <c r="Y106" s="78"/>
+      <c r="Z106" s="79"/>
+      <c r="AA106" s="80"/>
+      <c r="AB106" s="78"/>
+      <c r="AC106" s="79"/>
+      <c r="AD106" s="80"/>
       <c r="AE106" s="59"/>
       <c r="AF106" s="33"/>
       <c r="AG106" s="33"/>
@@ -10815,7 +10805,7 @@
       <c r="CB106" s="9"/>
       <c r="CC106" s="10"/>
     </row>
-    <row r="107" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="61"/>
       <c r="B107" s="32"/>
       <c r="C107" s="25"/>
@@ -10840,12 +10830,12 @@
       <c r="V107" s="26"/>
       <c r="W107" s="27"/>
       <c r="X107" s="28"/>
-      <c r="Y107" s="26"/>
-      <c r="Z107" s="27"/>
-      <c r="AA107" s="28"/>
-      <c r="AB107" s="26"/>
-      <c r="AC107" s="27"/>
-      <c r="AD107" s="28"/>
+      <c r="Y107" s="78"/>
+      <c r="Z107" s="79"/>
+      <c r="AA107" s="80"/>
+      <c r="AB107" s="78"/>
+      <c r="AC107" s="79"/>
+      <c r="AD107" s="80"/>
       <c r="AE107" s="59"/>
       <c r="AF107" s="33"/>
       <c r="AG107" s="33"/>
@@ -10898,7 +10888,7 @@
       <c r="CB107" s="9"/>
       <c r="CC107" s="10"/>
     </row>
-    <row r="108" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:81" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="62"/>
       <c r="B108" s="40"/>
       <c r="C108" s="41"/>
@@ -10923,12 +10913,12 @@
       <c r="V108" s="42"/>
       <c r="W108" s="43"/>
       <c r="X108" s="44"/>
-      <c r="Y108" s="42"/>
-      <c r="Z108" s="43"/>
-      <c r="AA108" s="44"/>
-      <c r="AB108" s="42"/>
-      <c r="AC108" s="43"/>
-      <c r="AD108" s="44"/>
+      <c r="Y108" s="81"/>
+      <c r="Z108" s="82"/>
+      <c r="AA108" s="83"/>
+      <c r="AB108" s="81"/>
+      <c r="AC108" s="82"/>
+      <c r="AD108" s="83"/>
       <c r="AE108" s="63"/>
       <c r="AF108" s="64"/>
       <c r="AG108" s="64"/>
@@ -10982,11 +10972,47 @@
       <c r="CC108" s="66"/>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="AB3:AD3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="V3:X3"/>
+    <mergeCell ref="Y3:AA3"/>
+  </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.18" right="0.16" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12 &amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>